--- a/Rainmaker EI testing.xlsx
+++ b/Rainmaker EI testing.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="6030" yWindow="795" windowWidth="19980" windowHeight="10035"/>
+    <workbookView xWindow="6030" yWindow="795" windowWidth="19980" windowHeight="10035" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="WBF3" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
   <si>
     <t>VALUE</t>
   </si>
@@ -59,6 +60,66 @@
   </si>
   <si>
     <t>Incremental Precip</t>
+  </si>
+  <si>
+    <t>startdate</t>
+  </si>
+  <si>
+    <t>enddate</t>
+  </si>
+  <si>
+    <t>theisen</t>
+  </si>
+  <si>
+    <t>p5max</t>
+  </si>
+  <si>
+    <t>p10max</t>
+  </si>
+  <si>
+    <t>p15max</t>
+  </si>
+  <si>
+    <t>p30max</t>
+  </si>
+  <si>
+    <t>p60max</t>
+  </si>
+  <si>
+    <t>ei</t>
+  </si>
+  <si>
+    <t>stormnum</t>
+  </si>
+  <si>
+    <t>StartDate</t>
+  </si>
+  <si>
+    <t>EndDate</t>
+  </si>
+  <si>
+    <t>rain</t>
+  </si>
+  <si>
+    <t>duration</t>
+  </si>
+  <si>
+    <t>Ievent</t>
+  </si>
+  <si>
+    <t>I5</t>
+  </si>
+  <si>
+    <t>I10</t>
+  </si>
+  <si>
+    <t>I15</t>
+  </si>
+  <si>
+    <t>I30</t>
+  </si>
+  <si>
+    <t>I60</t>
   </si>
 </sst>
 </file>
@@ -548,7 +609,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -588,6 +649,8 @@
     <xf numFmtId="166" fontId="7" fillId="3" borderId="0" xfId="7" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -932,7 +995,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="6000" topLeftCell="A151"/>
       <selection activeCell="L88" sqref="L88"/>
       <selection pane="bottomLeft" activeCell="G154" sqref="G154"/>
@@ -4947,4 +5010,5162 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U79"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="10" max="10" width="12.140625" style="18" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" customWidth="1"/>
+    <col min="12" max="12" width="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S1" t="s">
+        <v>33</v>
+      </c>
+      <c r="T1" t="s">
+        <v>34</v>
+      </c>
+      <c r="U1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="17">
+        <v>41725.620833333334</v>
+      </c>
+      <c r="B2" s="17">
+        <v>41726.236111111109</v>
+      </c>
+      <c r="C2">
+        <v>0.36</v>
+      </c>
+      <c r="D2">
+        <v>0.432</v>
+      </c>
+      <c r="E2">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="F2">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="G2">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="H2">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="I2">
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="J2" s="18">
+        <v>1</v>
+      </c>
+      <c r="K2" s="17">
+        <v>41725.614583333336</v>
+      </c>
+      <c r="L2" s="17">
+        <v>41726.236111111109</v>
+      </c>
+      <c r="M2">
+        <v>0.36</v>
+      </c>
+      <c r="N2">
+        <v>14.91666667</v>
+      </c>
+      <c r="O2">
+        <v>2.4134078E-2</v>
+      </c>
+      <c r="P2">
+        <v>0.432</v>
+      </c>
+      <c r="Q2">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="R2">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="S2">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="T2">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="U2">
+        <v>0.51545491200000004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="17">
+        <v>41733.06527777778</v>
+      </c>
+      <c r="B3" s="17">
+        <v>41733.079861111109</v>
+      </c>
+      <c r="C3">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="D3">
+        <v>0.216</v>
+      </c>
+      <c r="E3">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="F3">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="G3">
+        <v>-9</v>
+      </c>
+      <c r="H3">
+        <v>-9</v>
+      </c>
+      <c r="I3">
+        <v>-9</v>
+      </c>
+      <c r="J3" s="18">
+        <v>2</v>
+      </c>
+      <c r="K3" s="17">
+        <v>41733.0625</v>
+      </c>
+      <c r="L3" s="17">
+        <v>41733.079861111109</v>
+      </c>
+      <c r="M3">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="N3">
+        <v>0.41666667000000002</v>
+      </c>
+      <c r="O3">
+        <v>0.108</v>
+      </c>
+      <c r="P3">
+        <v>0.216</v>
+      </c>
+      <c r="Q3">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="R3">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="S3">
+        <v>0.09</v>
+      </c>
+      <c r="T3">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="U3">
+        <v>1.8148167E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="17">
+        <v>41733.330555555556</v>
+      </c>
+      <c r="B4" s="17">
+        <v>41733.39166666667</v>
+      </c>
+      <c r="C4">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="D4">
+        <v>0.108</v>
+      </c>
+      <c r="E4">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="F4">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="G4">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="H4">
+        <v>2.7E-2</v>
+      </c>
+      <c r="I4">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="J4" s="18">
+        <v>3</v>
+      </c>
+      <c r="K4" s="17">
+        <v>41733.322916666664</v>
+      </c>
+      <c r="L4" s="17">
+        <v>41733.39166666667</v>
+      </c>
+      <c r="M4">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="N4">
+        <v>1.65</v>
+      </c>
+      <c r="O4">
+        <v>2.1818181999999998E-2</v>
+      </c>
+      <c r="P4">
+        <v>0.108</v>
+      </c>
+      <c r="Q4">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="R4">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="S4">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="T4">
+        <v>2.7E-2</v>
+      </c>
+      <c r="U4">
+        <v>1.7363198999999999E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="17">
+        <v>41733.618750000001</v>
+      </c>
+      <c r="B5" s="17">
+        <v>41733.619444444441</v>
+      </c>
+      <c r="C5">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="D5">
+        <v>-9</v>
+      </c>
+      <c r="E5">
+        <v>-9</v>
+      </c>
+      <c r="F5">
+        <v>-9</v>
+      </c>
+      <c r="G5">
+        <v>-9</v>
+      </c>
+      <c r="H5">
+        <v>-9</v>
+      </c>
+      <c r="I5">
+        <v>-9</v>
+      </c>
+      <c r="J5" s="18">
+        <v>4</v>
+      </c>
+      <c r="K5" s="17">
+        <v>41733.614583333336</v>
+      </c>
+      <c r="L5" s="17">
+        <v>41733.619444444441</v>
+      </c>
+      <c r="M5">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="N5">
+        <v>0.11666667</v>
+      </c>
+      <c r="O5">
+        <v>7.7142856999999995E-2</v>
+      </c>
+      <c r="P5">
+        <v>0.108</v>
+      </c>
+      <c r="Q5">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="R5">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="S5">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="T5">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="U5">
+        <v>2.080574E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="17">
+        <v>41734.393055555556</v>
+      </c>
+      <c r="B6" s="17">
+        <v>41734.42083333333</v>
+      </c>
+      <c r="C6">
+        <v>2.7E-2</v>
+      </c>
+      <c r="D6">
+        <v>0.108</v>
+      </c>
+      <c r="E6">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="F6">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="G6">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="H6">
+        <v>-9</v>
+      </c>
+      <c r="I6">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="J6" s="18">
+        <v>5</v>
+      </c>
+      <c r="K6" s="17">
+        <v>41734.385416666664</v>
+      </c>
+      <c r="L6" s="17">
+        <v>41734.42083333333</v>
+      </c>
+      <c r="M6">
+        <v>2.7E-2</v>
+      </c>
+      <c r="N6">
+        <v>0.85</v>
+      </c>
+      <c r="O6">
+        <v>3.1764705999999997E-2</v>
+      </c>
+      <c r="P6">
+        <v>0.108</v>
+      </c>
+      <c r="Q6">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="R6">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="S6">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="T6">
+        <v>2.7E-2</v>
+      </c>
+      <c r="U6">
+        <v>1.1756373000000001E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="17">
+        <v>41737.901388888888</v>
+      </c>
+      <c r="B7" s="17">
+        <v>41737.902083333334</v>
+      </c>
+      <c r="C7">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="D7">
+        <v>-9</v>
+      </c>
+      <c r="E7">
+        <v>-9</v>
+      </c>
+      <c r="F7">
+        <v>-9</v>
+      </c>
+      <c r="G7">
+        <v>-9</v>
+      </c>
+      <c r="H7">
+        <v>-9</v>
+      </c>
+      <c r="I7">
+        <v>-9</v>
+      </c>
+      <c r="J7" s="18">
+        <v>6</v>
+      </c>
+      <c r="K7" s="17">
+        <v>41737.895833333336</v>
+      </c>
+      <c r="L7" s="17">
+        <v>41737.902083333334</v>
+      </c>
+      <c r="M7">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="N7">
+        <v>0.15</v>
+      </c>
+      <c r="O7">
+        <v>0.06</v>
+      </c>
+      <c r="P7">
+        <v>0.108</v>
+      </c>
+      <c r="Q7">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="R7">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="S7">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="T7">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="U7">
+        <v>2.1391000000000001E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="17">
+        <v>41741.440972222219</v>
+      </c>
+      <c r="B8" s="17">
+        <v>41741.579861111109</v>
+      </c>
+      <c r="C8">
+        <v>0.48599999999999999</v>
+      </c>
+      <c r="D8">
+        <v>1.62</v>
+      </c>
+      <c r="E8">
+        <v>1.1879999999999999</v>
+      </c>
+      <c r="F8">
+        <v>1.008</v>
+      </c>
+      <c r="G8">
+        <v>0.57599999999999996</v>
+      </c>
+      <c r="H8">
+        <v>0.36</v>
+      </c>
+      <c r="I8">
+        <v>2.4830000000000001</v>
+      </c>
+      <c r="J8" s="18">
+        <v>7</v>
+      </c>
+      <c r="K8" s="17">
+        <v>41741.4375</v>
+      </c>
+      <c r="L8" s="17">
+        <v>41741.579861111109</v>
+      </c>
+      <c r="M8">
+        <v>0.48599999999999999</v>
+      </c>
+      <c r="N8">
+        <v>3.4166666700000001</v>
+      </c>
+      <c r="O8">
+        <v>0.14224390200000001</v>
+      </c>
+      <c r="P8">
+        <v>1.62</v>
+      </c>
+      <c r="Q8">
+        <v>1.1879999999999999</v>
+      </c>
+      <c r="R8">
+        <v>1.008</v>
+      </c>
+      <c r="S8">
+        <v>0.57599999999999996</v>
+      </c>
+      <c r="T8">
+        <v>0.36</v>
+      </c>
+      <c r="U8">
+        <v>0.77690294400000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="17">
+        <v>41741.78125</v>
+      </c>
+      <c r="B9" s="17">
+        <v>41741.813888888886</v>
+      </c>
+      <c r="C9">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="D9">
+        <v>1.4039999999999999</v>
+      </c>
+      <c r="E9">
+        <v>1.026</v>
+      </c>
+      <c r="F9">
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="G9">
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="H9">
+        <v>-9</v>
+      </c>
+      <c r="I9">
+        <v>1.627</v>
+      </c>
+      <c r="J9" s="18">
+        <v>8</v>
+      </c>
+      <c r="K9" s="17">
+        <v>41741.78125</v>
+      </c>
+      <c r="L9" s="17">
+        <v>41741.813888888886</v>
+      </c>
+      <c r="M9">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="N9">
+        <v>0.78333333000000005</v>
+      </c>
+      <c r="O9">
+        <v>0.41361702099999997</v>
+      </c>
+      <c r="P9">
+        <v>1.4039999999999999</v>
+      </c>
+      <c r="Q9">
+        <v>1.026</v>
+      </c>
+      <c r="R9">
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="S9">
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="T9">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="U9">
+        <v>0.40081754400000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="17">
+        <v>41741.944444444445</v>
+      </c>
+      <c r="B10" s="17">
+        <v>41742.253472222219</v>
+      </c>
+      <c r="C10">
+        <v>1.296</v>
+      </c>
+      <c r="D10">
+        <v>1.62</v>
+      </c>
+      <c r="E10">
+        <v>1.08</v>
+      </c>
+      <c r="F10">
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="G10">
+        <v>0.66600000000000004</v>
+      </c>
+      <c r="H10">
+        <v>0.45</v>
+      </c>
+      <c r="I10">
+        <v>7.3550000000000004</v>
+      </c>
+      <c r="J10" s="18">
+        <v>9</v>
+      </c>
+      <c r="K10" s="17">
+        <v>41741.9375</v>
+      </c>
+      <c r="L10" s="17">
+        <v>41742.253472222219</v>
+      </c>
+      <c r="M10">
+        <v>1.296</v>
+      </c>
+      <c r="N10">
+        <v>7.5833333300000003</v>
+      </c>
+      <c r="O10">
+        <v>0.170901099</v>
+      </c>
+      <c r="P10">
+        <v>1.62</v>
+      </c>
+      <c r="Q10">
+        <v>1.08</v>
+      </c>
+      <c r="R10">
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="S10">
+        <v>0.66600000000000004</v>
+      </c>
+      <c r="T10">
+        <v>0.45</v>
+      </c>
+      <c r="U10">
+        <v>5.3138667230000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="17">
+        <v>41742.681250000001</v>
+      </c>
+      <c r="B11" s="17">
+        <v>41743.179861111108</v>
+      </c>
+      <c r="C11">
+        <v>1.8</v>
+      </c>
+      <c r="D11">
+        <v>0.54</v>
+      </c>
+      <c r="E11">
+        <v>0.432</v>
+      </c>
+      <c r="F11">
+        <v>0.39600000000000002</v>
+      </c>
+      <c r="G11">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="H11">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="I11">
+        <v>5.0940000000000003</v>
+      </c>
+      <c r="J11" s="18">
+        <v>10</v>
+      </c>
+      <c r="K11" s="17">
+        <v>41742.677083333336</v>
+      </c>
+      <c r="L11" s="17">
+        <v>41743.179861111108</v>
+      </c>
+      <c r="M11">
+        <v>1.8</v>
+      </c>
+      <c r="N11">
+        <v>12.06666667</v>
+      </c>
+      <c r="O11">
+        <v>0.14917127099999999</v>
+      </c>
+      <c r="P11">
+        <v>0.54</v>
+      </c>
+      <c r="Q11">
+        <v>0.432</v>
+      </c>
+      <c r="R11">
+        <v>0.39600000000000002</v>
+      </c>
+      <c r="S11">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="T11">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="U11">
+        <v>4.9280843120000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="17">
+        <v>41743.293749999997</v>
+      </c>
+      <c r="B12" s="17">
+        <v>41743.294444444444</v>
+      </c>
+      <c r="C12">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="D12">
+        <v>-9</v>
+      </c>
+      <c r="E12">
+        <v>-9</v>
+      </c>
+      <c r="F12">
+        <v>-9</v>
+      </c>
+      <c r="G12">
+        <v>-9</v>
+      </c>
+      <c r="H12">
+        <v>-9</v>
+      </c>
+      <c r="I12">
+        <v>-9</v>
+      </c>
+      <c r="J12" s="18">
+        <v>11</v>
+      </c>
+      <c r="K12" s="17">
+        <v>41743.293749999997</v>
+      </c>
+      <c r="L12" s="17">
+        <v>41743.294444444444</v>
+      </c>
+      <c r="M12">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="N12">
+        <v>1.6666670000000001E-2</v>
+      </c>
+      <c r="O12">
+        <v>0.54</v>
+      </c>
+      <c r="P12">
+        <v>0.108</v>
+      </c>
+      <c r="Q12">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="R12">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="S12">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="T12">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="U12">
+        <v>1.627416E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="17">
+        <v>41743.396527777775</v>
+      </c>
+      <c r="B13" s="17">
+        <v>41743.48333333333</v>
+      </c>
+      <c r="C13">
+        <v>0.126</v>
+      </c>
+      <c r="D13">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="E13">
+        <v>0.27</v>
+      </c>
+      <c r="F13">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="G13">
+        <v>0.18</v>
+      </c>
+      <c r="H13">
+        <v>0.108</v>
+      </c>
+      <c r="I13">
+        <v>0.188</v>
+      </c>
+      <c r="J13" s="18">
+        <v>12</v>
+      </c>
+      <c r="K13" s="17">
+        <v>41743.396527777775</v>
+      </c>
+      <c r="L13" s="17">
+        <v>41743.48333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.126</v>
+      </c>
+      <c r="N13">
+        <v>2.0833333299999999</v>
+      </c>
+      <c r="O13">
+        <v>6.0479999999999999E-2</v>
+      </c>
+      <c r="P13">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="Q13">
+        <v>0.27</v>
+      </c>
+      <c r="R13">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="S13">
+        <v>0.18</v>
+      </c>
+      <c r="T13">
+        <v>0.108</v>
+      </c>
+      <c r="U13">
+        <v>0.211564056</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="17">
+        <v>41750.636805555558</v>
+      </c>
+      <c r="B14" s="17">
+        <v>41750.692361111112</v>
+      </c>
+      <c r="C14">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="D14">
+        <v>0.216</v>
+      </c>
+      <c r="E14">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="F14">
+        <v>0.108</v>
+      </c>
+      <c r="G14">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="H14">
+        <v>2.7E-2</v>
+      </c>
+      <c r="I14">
+        <v>1.6E-2</v>
+      </c>
+      <c r="J14" s="18">
+        <v>13</v>
+      </c>
+      <c r="K14" s="17">
+        <v>41750.635416666664</v>
+      </c>
+      <c r="L14" s="17">
+        <v>41750.692361111112</v>
+      </c>
+      <c r="M14">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="N14">
+        <v>1.3666666700000001</v>
+      </c>
+      <c r="O14">
+        <v>2.6341462999999999E-2</v>
+      </c>
+      <c r="P14">
+        <v>0.216</v>
+      </c>
+      <c r="Q14">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="R14">
+        <v>0.108</v>
+      </c>
+      <c r="S14">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="T14">
+        <v>2.7E-2</v>
+      </c>
+      <c r="U14">
+        <v>1.1891496E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="17">
+        <v>41753.170138888891</v>
+      </c>
+      <c r="B15" s="17">
+        <v>41753.319444444445</v>
+      </c>
+      <c r="C15">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="D15">
+        <v>0.108</v>
+      </c>
+      <c r="E15">
+        <v>0.108</v>
+      </c>
+      <c r="F15">
+        <v>0.108</v>
+      </c>
+      <c r="G15">
+        <v>0.09</v>
+      </c>
+      <c r="H15">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="I15">
+        <v>0.121</v>
+      </c>
+      <c r="J15" s="18">
+        <v>14</v>
+      </c>
+      <c r="K15" s="17">
+        <v>41753.166666666664</v>
+      </c>
+      <c r="L15" s="17">
+        <v>41753.319444444445</v>
+      </c>
+      <c r="M15">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="N15">
+        <v>3.6666666700000001</v>
+      </c>
+      <c r="O15">
+        <v>4.4181817999999998E-2</v>
+      </c>
+      <c r="P15">
+        <v>0.108</v>
+      </c>
+      <c r="Q15">
+        <v>0.108</v>
+      </c>
+      <c r="R15">
+        <v>0.108</v>
+      </c>
+      <c r="S15">
+        <v>0.09</v>
+      </c>
+      <c r="T15">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="U15">
+        <v>9.9891266000000006E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="17">
+        <v>41753.429166666669</v>
+      </c>
+      <c r="B16" s="17">
+        <v>41753.429861111108</v>
+      </c>
+      <c r="C16">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="D16">
+        <v>-9</v>
+      </c>
+      <c r="E16">
+        <v>-9</v>
+      </c>
+      <c r="F16">
+        <v>-9</v>
+      </c>
+      <c r="G16">
+        <v>-9</v>
+      </c>
+      <c r="H16">
+        <v>-9</v>
+      </c>
+      <c r="I16">
+        <v>-9</v>
+      </c>
+      <c r="J16" s="18">
+        <v>15</v>
+      </c>
+      <c r="K16" s="17">
+        <v>41753.427083333336</v>
+      </c>
+      <c r="L16" s="17">
+        <v>41753.429861111108</v>
+      </c>
+      <c r="M16">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="N16">
+        <v>6.6666669999999997E-2</v>
+      </c>
+      <c r="O16">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="P16">
+        <v>0.108</v>
+      </c>
+      <c r="Q16">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="R16">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="S16">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="T16">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="U16">
+        <v>1.950252E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" s="17">
+        <v>41753.568749999999</v>
+      </c>
+      <c r="B17" s="17">
+        <v>41753.634027777778</v>
+      </c>
+      <c r="C17">
+        <v>2.7E-2</v>
+      </c>
+      <c r="D17">
+        <v>0.108</v>
+      </c>
+      <c r="E17">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="F17">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="G17">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="H17">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="I17">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="J17" s="18">
+        <v>16</v>
+      </c>
+      <c r="K17" s="17">
+        <v>41753.5625</v>
+      </c>
+      <c r="L17" s="17">
+        <v>41753.634027777778</v>
+      </c>
+      <c r="M17">
+        <v>2.7E-2</v>
+      </c>
+      <c r="N17">
+        <v>1.71666667</v>
+      </c>
+      <c r="O17">
+        <v>1.5728155000000001E-2</v>
+      </c>
+      <c r="P17">
+        <v>0.108</v>
+      </c>
+      <c r="Q17">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="R17">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="S17">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="T17">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="U17">
+        <v>1.2677246E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18" s="17">
+        <v>41753.788888888892</v>
+      </c>
+      <c r="B18" s="17">
+        <v>41753.789583333331</v>
+      </c>
+      <c r="C18">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="D18">
+        <v>-9</v>
+      </c>
+      <c r="E18">
+        <v>-9</v>
+      </c>
+      <c r="F18">
+        <v>-9</v>
+      </c>
+      <c r="G18">
+        <v>-9</v>
+      </c>
+      <c r="H18">
+        <v>-9</v>
+      </c>
+      <c r="I18">
+        <v>-9</v>
+      </c>
+      <c r="J18" s="18">
+        <v>17</v>
+      </c>
+      <c r="K18" s="17">
+        <v>41753.78125</v>
+      </c>
+      <c r="L18" s="17">
+        <v>41753.789583333331</v>
+      </c>
+      <c r="M18">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="N18">
+        <v>0.2</v>
+      </c>
+      <c r="O18">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="P18">
+        <v>0.108</v>
+      </c>
+      <c r="Q18">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="R18">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="S18">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="T18">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="U18">
+        <v>2.206094E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A19" s="17">
+        <v>41753.882638888892</v>
+      </c>
+      <c r="B19" s="17">
+        <v>41754.017361111109</v>
+      </c>
+      <c r="C19">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="D19">
+        <v>0.108</v>
+      </c>
+      <c r="E19">
+        <v>0.108</v>
+      </c>
+      <c r="F19">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="G19">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="H19">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="I19">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="J19" s="18">
+        <v>18</v>
+      </c>
+      <c r="K19" s="17">
+        <v>41753.875</v>
+      </c>
+      <c r="L19" s="17">
+        <v>41754.017361111109</v>
+      </c>
+      <c r="M19">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="N19">
+        <v>3.4166666700000001</v>
+      </c>
+      <c r="O19">
+        <v>2.8975609999999999E-2</v>
+      </c>
+      <c r="P19">
+        <v>0.108</v>
+      </c>
+      <c r="Q19">
+        <v>0.108</v>
+      </c>
+      <c r="R19">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="S19">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="T19">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="U19">
+        <v>6.2835370000000002E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20" s="17">
+        <v>41756.149305555555</v>
+      </c>
+      <c r="B20" s="17">
+        <v>41756.15</v>
+      </c>
+      <c r="C20">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="D20">
+        <v>-9</v>
+      </c>
+      <c r="E20">
+        <v>-9</v>
+      </c>
+      <c r="F20">
+        <v>-9</v>
+      </c>
+      <c r="G20">
+        <v>-9</v>
+      </c>
+      <c r="H20">
+        <v>-9</v>
+      </c>
+      <c r="I20">
+        <v>-9</v>
+      </c>
+      <c r="J20" s="18">
+        <v>19</v>
+      </c>
+      <c r="K20" s="17">
+        <v>41756.145833333336</v>
+      </c>
+      <c r="L20" s="17">
+        <v>41756.15</v>
+      </c>
+      <c r="M20">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="N20">
+        <v>0.1</v>
+      </c>
+      <c r="O20">
+        <v>0.09</v>
+      </c>
+      <c r="P20">
+        <v>0.108</v>
+      </c>
+      <c r="Q20">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="R20">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="S20">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="T20">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="U20">
+        <v>2.044676E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A21" s="17">
+        <v>41756.386805555558</v>
+      </c>
+      <c r="B21" s="17">
+        <v>41756.387499999997</v>
+      </c>
+      <c r="C21">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="D21">
+        <v>-9</v>
+      </c>
+      <c r="E21">
+        <v>-9</v>
+      </c>
+      <c r="F21">
+        <v>-9</v>
+      </c>
+      <c r="G21">
+        <v>-9</v>
+      </c>
+      <c r="H21">
+        <v>-9</v>
+      </c>
+      <c r="I21">
+        <v>-9</v>
+      </c>
+      <c r="J21" s="18">
+        <v>20</v>
+      </c>
+      <c r="K21" s="17">
+        <v>41756.385416666664</v>
+      </c>
+      <c r="L21" s="17">
+        <v>41756.387499999997</v>
+      </c>
+      <c r="M21">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="N21">
+        <v>0.05</v>
+      </c>
+      <c r="O21">
+        <v>0.18</v>
+      </c>
+      <c r="P21">
+        <v>0.108</v>
+      </c>
+      <c r="Q21">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="R21">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="S21">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="T21">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="U21">
+        <v>1.8832580000000001E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A22" s="17">
+        <v>41756.832638888889</v>
+      </c>
+      <c r="B22" s="17">
+        <v>41756.864583333336</v>
+      </c>
+      <c r="C22">
+        <v>2.7E-2</v>
+      </c>
+      <c r="D22">
+        <v>0.108</v>
+      </c>
+      <c r="E22">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="F22">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="G22">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="H22">
+        <v>-9</v>
+      </c>
+      <c r="I22">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="J22" s="18">
+        <v>21</v>
+      </c>
+      <c r="K22" s="17">
+        <v>41756.822916666664</v>
+      </c>
+      <c r="L22" s="17">
+        <v>41756.864583333336</v>
+      </c>
+      <c r="M22">
+        <v>2.7E-2</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>2.7E-2</v>
+      </c>
+      <c r="P22">
+        <v>0.108</v>
+      </c>
+      <c r="Q22">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="R22">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="S22">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="T22">
+        <v>2.7E-2</v>
+      </c>
+      <c r="U22">
+        <v>1.3193386E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A23" s="17">
+        <v>41757.013888888891</v>
+      </c>
+      <c r="B23" s="17">
+        <v>41757.072222222225</v>
+      </c>
+      <c r="C23">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="D23">
+        <v>0.108</v>
+      </c>
+      <c r="E23">
+        <v>0.108</v>
+      </c>
+      <c r="F23">
+        <v>0.108</v>
+      </c>
+      <c r="G23">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="H23">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="I23">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="J23" s="18">
+        <v>22</v>
+      </c>
+      <c r="K23" s="17">
+        <v>41757.010416666664</v>
+      </c>
+      <c r="L23" s="17">
+        <v>41757.072222222225</v>
+      </c>
+      <c r="M23">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="N23">
+        <v>1.48333333</v>
+      </c>
+      <c r="O23">
+        <v>3.6404494000000003E-2</v>
+      </c>
+      <c r="P23">
+        <v>0.108</v>
+      </c>
+      <c r="Q23">
+        <v>0.108</v>
+      </c>
+      <c r="R23">
+        <v>0.108</v>
+      </c>
+      <c r="S23">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="T23">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="U23">
+        <v>3.1521615000000003E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A24" s="17">
+        <v>41757.536111111112</v>
+      </c>
+      <c r="B24" s="17">
+        <v>41757.536805555559</v>
+      </c>
+      <c r="C24">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="D24">
+        <v>-9</v>
+      </c>
+      <c r="E24">
+        <v>-9</v>
+      </c>
+      <c r="F24">
+        <v>-9</v>
+      </c>
+      <c r="G24">
+        <v>-9</v>
+      </c>
+      <c r="H24">
+        <v>-9</v>
+      </c>
+      <c r="I24">
+        <v>-9</v>
+      </c>
+      <c r="J24" s="18">
+        <v>23</v>
+      </c>
+      <c r="K24" s="17">
+        <v>41757.53125</v>
+      </c>
+      <c r="L24" s="17">
+        <v>41757.536805555559</v>
+      </c>
+      <c r="M24">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="N24">
+        <v>0.13333333</v>
+      </c>
+      <c r="O24">
+        <v>6.7500000000000004E-2</v>
+      </c>
+      <c r="P24">
+        <v>0.108</v>
+      </c>
+      <c r="Q24">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="R24">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="S24">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="T24">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="U24">
+        <v>2.1116709999999999E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A25" s="17">
+        <v>41757.625</v>
+      </c>
+      <c r="B25" s="17">
+        <v>41757.625694444447</v>
+      </c>
+      <c r="C25">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="D25">
+        <v>-9</v>
+      </c>
+      <c r="E25">
+        <v>-9</v>
+      </c>
+      <c r="F25">
+        <v>-9</v>
+      </c>
+      <c r="G25">
+        <v>-9</v>
+      </c>
+      <c r="H25">
+        <v>-9</v>
+      </c>
+      <c r="I25">
+        <v>-9</v>
+      </c>
+      <c r="J25" s="18">
+        <v>24</v>
+      </c>
+      <c r="K25" s="17">
+        <v>41757.625</v>
+      </c>
+      <c r="L25" s="17">
+        <v>41757.625694444447</v>
+      </c>
+      <c r="M25">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="N25">
+        <v>1.6666670000000001E-2</v>
+      </c>
+      <c r="O25">
+        <v>0.54</v>
+      </c>
+      <c r="P25">
+        <v>0.108</v>
+      </c>
+      <c r="Q25">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="R25">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="S25">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="T25">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="U25">
+        <v>1.627416E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A26" s="17">
+        <v>41757.859722222223</v>
+      </c>
+      <c r="B26" s="17">
+        <v>41758.304861111108</v>
+      </c>
+      <c r="C26">
+        <v>0.378</v>
+      </c>
+      <c r="D26">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="E26">
+        <v>0.27</v>
+      </c>
+      <c r="F26">
+        <v>0.252</v>
+      </c>
+      <c r="G26">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="H26">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="I26">
+        <v>0.61899999999999999</v>
+      </c>
+      <c r="J26" s="18">
+        <v>25</v>
+      </c>
+      <c r="K26" s="17">
+        <v>41757.854166666664</v>
+      </c>
+      <c r="L26" s="17">
+        <v>41758.304861111108</v>
+      </c>
+      <c r="M26">
+        <v>0.378</v>
+      </c>
+      <c r="N26">
+        <v>10.81666667</v>
+      </c>
+      <c r="O26">
+        <v>3.4946071000000002E-2</v>
+      </c>
+      <c r="P26">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="Q26">
+        <v>0.27</v>
+      </c>
+      <c r="R26">
+        <v>0.252</v>
+      </c>
+      <c r="S26">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="T26">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="U26">
+        <v>0.54350541900000005</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A27" s="17">
+        <v>41758.531944444447</v>
+      </c>
+      <c r="B27" s="17">
+        <v>41758.532638888886</v>
+      </c>
+      <c r="C27">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="D27">
+        <v>-9</v>
+      </c>
+      <c r="E27">
+        <v>-9</v>
+      </c>
+      <c r="F27">
+        <v>-9</v>
+      </c>
+      <c r="G27">
+        <v>-9</v>
+      </c>
+      <c r="H27">
+        <v>-9</v>
+      </c>
+      <c r="I27">
+        <v>-9</v>
+      </c>
+      <c r="J27" s="18">
+        <v>26</v>
+      </c>
+      <c r="K27" s="17">
+        <v>41758.53125</v>
+      </c>
+      <c r="L27" s="17">
+        <v>41758.532638888886</v>
+      </c>
+      <c r="M27">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="N27">
+        <v>3.3333330000000001E-2</v>
+      </c>
+      <c r="O27">
+        <v>0.27</v>
+      </c>
+      <c r="P27">
+        <v>0.108</v>
+      </c>
+      <c r="Q27">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="R27">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="S27">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="T27">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="U27">
+        <v>1.788834E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A28" s="17">
+        <v>41758.634722222225</v>
+      </c>
+      <c r="B28" s="17">
+        <v>41758.756944444445</v>
+      </c>
+      <c r="C28">
+        <v>2.7E-2</v>
+      </c>
+      <c r="D28">
+        <v>0.108</v>
+      </c>
+      <c r="E28">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="F28">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="G28">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="H28">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="I28">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="J28" s="18">
+        <v>27</v>
+      </c>
+      <c r="K28" s="17">
+        <v>41758.625</v>
+      </c>
+      <c r="L28" s="17">
+        <v>41758.756944444445</v>
+      </c>
+      <c r="M28">
+        <v>2.7E-2</v>
+      </c>
+      <c r="N28">
+        <v>3.1666666700000001</v>
+      </c>
+      <c r="O28">
+        <v>8.5263160000000008E-3</v>
+      </c>
+      <c r="P28">
+        <v>0.108</v>
+      </c>
+      <c r="Q28">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="R28">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="S28">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="T28">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="U28">
+        <v>6.64643E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A29" s="17">
+        <v>41758.979861111111</v>
+      </c>
+      <c r="B29" s="17">
+        <v>41758.980555555558</v>
+      </c>
+      <c r="C29">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="D29">
+        <v>-9</v>
+      </c>
+      <c r="E29">
+        <v>-9</v>
+      </c>
+      <c r="F29">
+        <v>-9</v>
+      </c>
+      <c r="G29">
+        <v>-9</v>
+      </c>
+      <c r="H29">
+        <v>-9</v>
+      </c>
+      <c r="I29">
+        <v>-9</v>
+      </c>
+      <c r="J29" s="18">
+        <v>28</v>
+      </c>
+      <c r="K29" s="17">
+        <v>41758.979166666664</v>
+      </c>
+      <c r="L29" s="17">
+        <v>41758.980555555558</v>
+      </c>
+      <c r="M29">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="N29">
+        <v>3.3333330000000001E-2</v>
+      </c>
+      <c r="O29">
+        <v>0.27</v>
+      </c>
+      <c r="P29">
+        <v>0.108</v>
+      </c>
+      <c r="Q29">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="R29">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="S29">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="T29">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="U29">
+        <v>1.788834E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A30" s="17">
+        <v>41760.864583333336</v>
+      </c>
+      <c r="B30" s="17">
+        <v>41760.865277777775</v>
+      </c>
+      <c r="C30">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="D30">
+        <v>-9</v>
+      </c>
+      <c r="E30">
+        <v>-9</v>
+      </c>
+      <c r="F30">
+        <v>-9</v>
+      </c>
+      <c r="G30">
+        <v>-9</v>
+      </c>
+      <c r="H30">
+        <v>-9</v>
+      </c>
+      <c r="I30">
+        <v>-9</v>
+      </c>
+      <c r="J30" s="18">
+        <v>29</v>
+      </c>
+      <c r="K30" s="17">
+        <v>41760.864583333336</v>
+      </c>
+      <c r="L30" s="17">
+        <v>41760.865277777775</v>
+      </c>
+      <c r="M30">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="N30">
+        <v>1.6666670000000001E-2</v>
+      </c>
+      <c r="O30">
+        <v>0.54</v>
+      </c>
+      <c r="P30">
+        <v>0.108</v>
+      </c>
+      <c r="Q30">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="R30">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="S30">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="T30">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="U30">
+        <v>1.627416E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A31" s="17">
+        <v>41761.881249999999</v>
+      </c>
+      <c r="B31" s="17">
+        <v>41761.992361111108</v>
+      </c>
+      <c r="C31">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="D31">
+        <v>0.216</v>
+      </c>
+      <c r="E31">
+        <v>0.216</v>
+      </c>
+      <c r="F31">
+        <v>0.18</v>
+      </c>
+      <c r="G31">
+        <v>0.126</v>
+      </c>
+      <c r="H31">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="I31">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="J31" s="18">
+        <v>30</v>
+      </c>
+      <c r="K31" s="17">
+        <v>41761.875</v>
+      </c>
+      <c r="L31" s="17">
+        <v>41761.992361111108</v>
+      </c>
+      <c r="M31">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="N31">
+        <v>2.81666667</v>
+      </c>
+      <c r="O31">
+        <v>4.7928994000000003E-2</v>
+      </c>
+      <c r="P31">
+        <v>0.216</v>
+      </c>
+      <c r="Q31">
+        <v>0.216</v>
+      </c>
+      <c r="R31">
+        <v>0.18</v>
+      </c>
+      <c r="S31">
+        <v>0.126</v>
+      </c>
+      <c r="T31">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="U31">
+        <v>0.11660835</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A32" s="17">
+        <v>41762.347222222219</v>
+      </c>
+      <c r="B32" s="17">
+        <v>41762.347916666666</v>
+      </c>
+      <c r="C32">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="D32">
+        <v>-9</v>
+      </c>
+      <c r="E32">
+        <v>-9</v>
+      </c>
+      <c r="F32">
+        <v>-9</v>
+      </c>
+      <c r="G32">
+        <v>-9</v>
+      </c>
+      <c r="H32">
+        <v>-9</v>
+      </c>
+      <c r="I32">
+        <v>-9</v>
+      </c>
+      <c r="J32" s="18">
+        <v>31</v>
+      </c>
+      <c r="K32" s="17">
+        <v>41762.34375</v>
+      </c>
+      <c r="L32" s="17">
+        <v>41762.347916666666</v>
+      </c>
+      <c r="M32">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="N32">
+        <v>0.1</v>
+      </c>
+      <c r="O32">
+        <v>0.09</v>
+      </c>
+      <c r="P32">
+        <v>0.108</v>
+      </c>
+      <c r="Q32">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="R32">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="S32">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="T32">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="U32">
+        <v>2.044676E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A33" s="17">
+        <v>41766.027777777781</v>
+      </c>
+      <c r="B33" s="17">
+        <v>41766.11041666667</v>
+      </c>
+      <c r="C33">
+        <v>0.252</v>
+      </c>
+      <c r="D33">
+        <v>1.944</v>
+      </c>
+      <c r="E33">
+        <v>1.1879999999999999</v>
+      </c>
+      <c r="F33">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="G33">
+        <v>0.39600000000000002</v>
+      </c>
+      <c r="H33">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="I33">
+        <v>0.96</v>
+      </c>
+      <c r="J33" s="18">
+        <v>32</v>
+      </c>
+      <c r="K33" s="17">
+        <v>41766.020833333336</v>
+      </c>
+      <c r="L33" s="17">
+        <v>41766.11041666667</v>
+      </c>
+      <c r="M33">
+        <v>0.252</v>
+      </c>
+      <c r="N33">
+        <v>2.15</v>
+      </c>
+      <c r="O33">
+        <v>0.117209302</v>
+      </c>
+      <c r="P33">
+        <v>1.944</v>
+      </c>
+      <c r="Q33">
+        <v>1.1879999999999999</v>
+      </c>
+      <c r="R33">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="S33">
+        <v>0.39600000000000002</v>
+      </c>
+      <c r="T33">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="U33">
+        <v>0.31016467800000003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A34" s="17">
+        <v>41766.477083333331</v>
+      </c>
+      <c r="B34" s="17">
+        <v>41766.532638888886</v>
+      </c>
+      <c r="C34">
+        <v>0.441</v>
+      </c>
+      <c r="D34">
+        <v>1.296</v>
+      </c>
+      <c r="E34">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="F34">
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="G34">
+        <v>0.52200000000000002</v>
+      </c>
+      <c r="H34">
+        <v>0.39600000000000002</v>
+      </c>
+      <c r="I34">
+        <v>2.069</v>
+      </c>
+      <c r="J34" s="18">
+        <v>33</v>
+      </c>
+      <c r="K34" s="17">
+        <v>41766.46875</v>
+      </c>
+      <c r="L34" s="17">
+        <v>41766.532638888886</v>
+      </c>
+      <c r="M34">
+        <v>0.441</v>
+      </c>
+      <c r="N34">
+        <v>1.53333333</v>
+      </c>
+      <c r="O34">
+        <v>0.287608696</v>
+      </c>
+      <c r="P34">
+        <v>1.296</v>
+      </c>
+      <c r="Q34">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="R34">
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="S34">
+        <v>0.52200000000000002</v>
+      </c>
+      <c r="T34">
+        <v>0.39600000000000002</v>
+      </c>
+      <c r="U34">
+        <v>0.663486558</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A35" s="17">
+        <v>41768.254166666666</v>
+      </c>
+      <c r="B35" s="17">
+        <v>41768.303472222222</v>
+      </c>
+      <c r="C35">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="D35">
+        <v>0.216</v>
+      </c>
+      <c r="E35">
+        <v>0.108</v>
+      </c>
+      <c r="F35">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="G35">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="H35">
+        <v>2.7E-2</v>
+      </c>
+      <c r="I35">
+        <v>1.6E-2</v>
+      </c>
+      <c r="J35" s="18">
+        <v>34</v>
+      </c>
+      <c r="K35" s="17">
+        <v>41768.25</v>
+      </c>
+      <c r="L35" s="17">
+        <v>41768.303472222222</v>
+      </c>
+      <c r="M35">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="N35">
+        <v>1.28333333</v>
+      </c>
+      <c r="O35">
+        <v>2.8051948E-2</v>
+      </c>
+      <c r="P35">
+        <v>0.216</v>
+      </c>
+      <c r="Q35">
+        <v>0.108</v>
+      </c>
+      <c r="R35">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="S35">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="T35">
+        <v>2.7E-2</v>
+      </c>
+      <c r="U35">
+        <v>1.8334203E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A36" s="17">
+        <v>41770.71875</v>
+      </c>
+      <c r="B36" s="17">
+        <v>41770.770833333336</v>
+      </c>
+      <c r="C36">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="D36">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="E36">
+        <v>0.27</v>
+      </c>
+      <c r="F36">
+        <v>0.252</v>
+      </c>
+      <c r="G36">
+        <v>0.216</v>
+      </c>
+      <c r="H36">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="I36">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="J36" s="18">
+        <v>35</v>
+      </c>
+      <c r="K36" s="17">
+        <v>41770.71875</v>
+      </c>
+      <c r="L36" s="17">
+        <v>41770.770833333336</v>
+      </c>
+      <c r="M36">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="N36">
+        <v>1.25</v>
+      </c>
+      <c r="O36">
+        <v>0.15840000000000001</v>
+      </c>
+      <c r="P36">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="Q36">
+        <v>0.27</v>
+      </c>
+      <c r="R36">
+        <v>0.252</v>
+      </c>
+      <c r="S36">
+        <v>0.216</v>
+      </c>
+      <c r="T36">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="U36">
+        <v>6.3594093000000004E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A37" s="17">
+        <v>41771.15</v>
+      </c>
+      <c r="B37" s="17">
+        <v>41771.244444444441</v>
+      </c>
+      <c r="C37">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="D37">
+        <v>2.1</v>
+      </c>
+      <c r="E37">
+        <v>1.32</v>
+      </c>
+      <c r="F37">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="G37">
+        <v>0.49399999999999999</v>
+      </c>
+      <c r="H37">
+        <v>0.247</v>
+      </c>
+      <c r="I37">
+        <v>1.377</v>
+      </c>
+      <c r="J37" s="18">
+        <v>36</v>
+      </c>
+      <c r="K37" s="17">
+        <v>41771.145833333336</v>
+      </c>
+      <c r="L37" s="17">
+        <v>41771.244444444441</v>
+      </c>
+      <c r="M37">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="N37">
+        <v>2.3666666699999999</v>
+      </c>
+      <c r="O37">
+        <v>0.12338028199999999</v>
+      </c>
+      <c r="P37">
+        <v>2.1</v>
+      </c>
+      <c r="Q37">
+        <v>1.32</v>
+      </c>
+      <c r="R37">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="S37">
+        <v>0.49399999999999999</v>
+      </c>
+      <c r="T37">
+        <v>0.247</v>
+      </c>
+      <c r="U37">
+        <v>0.39849774900000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A38" s="17">
+        <v>41771.476388888892</v>
+      </c>
+      <c r="B38" s="17">
+        <v>41771.502083333333</v>
+      </c>
+      <c r="C38">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="D38">
+        <v>2.2080000000000002</v>
+      </c>
+      <c r="E38">
+        <v>1.806</v>
+      </c>
+      <c r="F38">
+        <v>1.3839999999999999</v>
+      </c>
+      <c r="G38">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="H38">
+        <v>-9</v>
+      </c>
+      <c r="I38">
+        <v>4.2519999999999998</v>
+      </c>
+      <c r="J38" s="18">
+        <v>37</v>
+      </c>
+      <c r="K38" s="17">
+        <v>41771.46875</v>
+      </c>
+      <c r="L38" s="17">
+        <v>41771.502083333333</v>
+      </c>
+      <c r="M38">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="N38">
+        <v>0.8</v>
+      </c>
+      <c r="O38">
+        <v>0.60124999999999995</v>
+      </c>
+      <c r="P38">
+        <v>2.2080000000000002</v>
+      </c>
+      <c r="Q38">
+        <v>1.806</v>
+      </c>
+      <c r="R38">
+        <v>1.3839999999999999</v>
+      </c>
+      <c r="S38">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="T38">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="U38">
+        <v>1.150732624</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A39" s="17">
+        <v>41771.84652777778</v>
+      </c>
+      <c r="B39" s="17">
+        <v>41771.847222222219</v>
+      </c>
+      <c r="C39">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="D39">
+        <v>-9</v>
+      </c>
+      <c r="E39">
+        <v>-9</v>
+      </c>
+      <c r="F39">
+        <v>-9</v>
+      </c>
+      <c r="G39">
+        <v>-9</v>
+      </c>
+      <c r="H39">
+        <v>-9</v>
+      </c>
+      <c r="I39">
+        <v>-9</v>
+      </c>
+      <c r="J39" s="18">
+        <v>38</v>
+      </c>
+      <c r="K39" s="17">
+        <v>41771.84375</v>
+      </c>
+      <c r="L39" s="17">
+        <v>41771.847222222219</v>
+      </c>
+      <c r="M39">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="N39">
+        <v>8.3333329999999997E-2</v>
+      </c>
+      <c r="O39">
+        <v>0.108</v>
+      </c>
+      <c r="P39">
+        <v>0.108</v>
+      </c>
+      <c r="Q39">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="R39">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="S39">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="T39">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="U39">
+        <v>2.0022180000000001E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A40" s="17">
+        <v>41771.955555555556</v>
+      </c>
+      <c r="B40" s="17">
+        <v>41772.052083333336</v>
+      </c>
+      <c r="C40">
+        <v>0.252</v>
+      </c>
+      <c r="D40">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="E40">
+        <v>0.27</v>
+      </c>
+      <c r="F40">
+        <v>0.252</v>
+      </c>
+      <c r="G40">
+        <v>0.216</v>
+      </c>
+      <c r="H40">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="I40">
+        <v>0.45</v>
+      </c>
+      <c r="J40" s="18">
+        <v>39</v>
+      </c>
+      <c r="K40" s="17">
+        <v>41771.947916666664</v>
+      </c>
+      <c r="L40" s="17">
+        <v>41772.052083333336</v>
+      </c>
+      <c r="M40">
+        <v>0.252</v>
+      </c>
+      <c r="N40">
+        <v>2.5</v>
+      </c>
+      <c r="O40">
+        <v>0.1008</v>
+      </c>
+      <c r="P40">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="Q40">
+        <v>0.27</v>
+      </c>
+      <c r="R40">
+        <v>0.252</v>
+      </c>
+      <c r="S40">
+        <v>0.216</v>
+      </c>
+      <c r="T40">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="U40">
+        <v>0.40139797799999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A41" s="17">
+        <v>41772.236111111109</v>
+      </c>
+      <c r="B41" s="17">
+        <v>41772.345138888886</v>
+      </c>
+      <c r="C41">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="D41">
+        <v>0.108</v>
+      </c>
+      <c r="E41">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="F41">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="G41">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="H41">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="I41">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="J41" s="18">
+        <v>40</v>
+      </c>
+      <c r="K41" s="17">
+        <v>41772.229166666664</v>
+      </c>
+      <c r="L41" s="17">
+        <v>41772.345138888886</v>
+      </c>
+      <c r="M41">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="N41">
+        <v>2.78333333</v>
+      </c>
+      <c r="O41">
+        <v>2.9101795999999999E-2</v>
+      </c>
+      <c r="P41">
+        <v>0.108</v>
+      </c>
+      <c r="Q41">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="R41">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="S41">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="T41">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="U41">
+        <v>4.2092702000000003E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A42" s="17">
+        <v>41772.454861111109</v>
+      </c>
+      <c r="B42" s="17">
+        <v>41772.455555555556</v>
+      </c>
+      <c r="C42">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="D42">
+        <v>-9</v>
+      </c>
+      <c r="E42">
+        <v>-9</v>
+      </c>
+      <c r="F42">
+        <v>-9</v>
+      </c>
+      <c r="G42">
+        <v>-9</v>
+      </c>
+      <c r="H42">
+        <v>-9</v>
+      </c>
+      <c r="I42">
+        <v>-9</v>
+      </c>
+      <c r="J42" s="18">
+        <v>41</v>
+      </c>
+      <c r="K42" s="17">
+        <v>41772.447916666664</v>
+      </c>
+      <c r="L42" s="17">
+        <v>41772.455555555556</v>
+      </c>
+      <c r="M42">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="N42">
+        <v>0.18333332999999999</v>
+      </c>
+      <c r="O42">
+        <v>4.9090909000000002E-2</v>
+      </c>
+      <c r="P42">
+        <v>0.108</v>
+      </c>
+      <c r="Q42">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="R42">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="S42">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="T42">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="U42">
+        <v>2.1858310000000001E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A43" s="17">
+        <v>41774.152083333334</v>
+      </c>
+      <c r="B43" s="17">
+        <v>41774.369444444441</v>
+      </c>
+      <c r="C43">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="D43">
+        <v>0.108</v>
+      </c>
+      <c r="E43">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="F43">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="G43">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="H43">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="I43">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="J43" s="18">
+        <v>42</v>
+      </c>
+      <c r="K43" s="17">
+        <v>41774.145833333336</v>
+      </c>
+      <c r="L43" s="17">
+        <v>41774.369444444441</v>
+      </c>
+      <c r="M43">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="N43">
+        <v>5.3666666699999999</v>
+      </c>
+      <c r="O43">
+        <v>1.8447205000000001E-2</v>
+      </c>
+      <c r="P43">
+        <v>0.108</v>
+      </c>
+      <c r="Q43">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="R43">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="S43">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="T43">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="U43">
+        <v>4.6973998000000003E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A44" s="17">
+        <v>41778.681944444441</v>
+      </c>
+      <c r="B44" s="17">
+        <v>41778.768055555556</v>
+      </c>
+      <c r="C44">
+        <v>6.3E-2</v>
+      </c>
+      <c r="D44">
+        <v>0.108</v>
+      </c>
+      <c r="E44">
+        <v>0.108</v>
+      </c>
+      <c r="F44">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="G44">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="H44">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="I44">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="J44" s="18">
+        <v>43</v>
+      </c>
+      <c r="K44" s="17">
+        <v>41778.677083333336</v>
+      </c>
+      <c r="L44" s="17">
+        <v>41778.768055555556</v>
+      </c>
+      <c r="M44">
+        <v>6.3E-2</v>
+      </c>
+      <c r="N44">
+        <v>2.18333333</v>
+      </c>
+      <c r="O44">
+        <v>2.8854962000000001E-2</v>
+      </c>
+      <c r="P44">
+        <v>0.108</v>
+      </c>
+      <c r="Q44">
+        <v>0.108</v>
+      </c>
+      <c r="R44">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="S44">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="T44">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="U44">
+        <v>2.5377246999999999E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A45" s="17">
+        <v>41779.032638888886</v>
+      </c>
+      <c r="B45" s="17">
+        <v>41779.033333333333</v>
+      </c>
+      <c r="C45">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="D45">
+        <v>-9</v>
+      </c>
+      <c r="E45">
+        <v>-9</v>
+      </c>
+      <c r="F45">
+        <v>-9</v>
+      </c>
+      <c r="G45">
+        <v>-9</v>
+      </c>
+      <c r="H45">
+        <v>-9</v>
+      </c>
+      <c r="I45">
+        <v>-9</v>
+      </c>
+      <c r="J45" s="18">
+        <v>44</v>
+      </c>
+      <c r="K45" s="17">
+        <v>41779.03125</v>
+      </c>
+      <c r="L45" s="17">
+        <v>41779.033333333333</v>
+      </c>
+      <c r="M45">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="N45">
+        <v>0.05</v>
+      </c>
+      <c r="O45">
+        <v>0.18</v>
+      </c>
+      <c r="P45">
+        <v>0.108</v>
+      </c>
+      <c r="Q45">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="R45">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="S45">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="T45">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="U45">
+        <v>1.8832580000000001E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A46" s="17">
+        <v>41785.686805555553</v>
+      </c>
+      <c r="B46" s="17">
+        <v>41785.6875</v>
+      </c>
+      <c r="C46">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="D46">
+        <v>-9</v>
+      </c>
+      <c r="E46">
+        <v>-9</v>
+      </c>
+      <c r="F46">
+        <v>-9</v>
+      </c>
+      <c r="G46">
+        <v>-9</v>
+      </c>
+      <c r="H46">
+        <v>-9</v>
+      </c>
+      <c r="I46">
+        <v>-9</v>
+      </c>
+      <c r="J46" s="18">
+        <v>45</v>
+      </c>
+      <c r="K46" s="17">
+        <v>41785.677083333336</v>
+      </c>
+      <c r="L46" s="17">
+        <v>41785.6875</v>
+      </c>
+      <c r="M46">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="N46">
+        <v>0.25</v>
+      </c>
+      <c r="O46">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="P46">
+        <v>0.108</v>
+      </c>
+      <c r="Q46">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="R46">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="S46">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="T46">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="U46">
+        <v>2.2580590000000002E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A47" s="17">
+        <v>41786.227777777778</v>
+      </c>
+      <c r="B47" s="17">
+        <v>41786.228472222225</v>
+      </c>
+      <c r="C47">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="D47">
+        <v>-9</v>
+      </c>
+      <c r="E47">
+        <v>-9</v>
+      </c>
+      <c r="F47">
+        <v>-9</v>
+      </c>
+      <c r="G47">
+        <v>-9</v>
+      </c>
+      <c r="H47">
+        <v>-9</v>
+      </c>
+      <c r="I47">
+        <v>-9</v>
+      </c>
+      <c r="J47" s="18">
+        <v>46</v>
+      </c>
+      <c r="K47" s="17">
+        <v>41786.21875</v>
+      </c>
+      <c r="L47" s="17">
+        <v>41786.228472222225</v>
+      </c>
+      <c r="M47">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="N47">
+        <v>0.23333333000000001</v>
+      </c>
+      <c r="O47">
+        <v>3.8571428999999997E-2</v>
+      </c>
+      <c r="P47">
+        <v>0.108</v>
+      </c>
+      <c r="Q47">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="R47">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="S47">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="T47">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="U47">
+        <v>2.2419929999999999E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A48" s="17">
+        <v>41786.484027777777</v>
+      </c>
+      <c r="B48" s="17">
+        <v>41786.584027777775</v>
+      </c>
+      <c r="C48">
+        <v>0.92100000000000004</v>
+      </c>
+      <c r="D48">
+        <v>2.6280000000000001</v>
+      </c>
+      <c r="E48">
+        <v>2.286</v>
+      </c>
+      <c r="F48">
+        <v>2.1720000000000002</v>
+      </c>
+      <c r="G48">
+        <v>1.446</v>
+      </c>
+      <c r="H48">
+        <v>0.77700000000000002</v>
+      </c>
+      <c r="I48">
+        <v>12.802</v>
+      </c>
+      <c r="J48" s="18">
+        <v>47</v>
+      </c>
+      <c r="K48" s="17">
+        <v>41786.479166666664</v>
+      </c>
+      <c r="L48" s="17">
+        <v>41786.584027777775</v>
+      </c>
+      <c r="M48">
+        <v>0.92100000000000004</v>
+      </c>
+      <c r="N48">
+        <v>2.5166666700000002</v>
+      </c>
+      <c r="O48">
+        <v>0.36596026500000001</v>
+      </c>
+      <c r="P48">
+        <v>2.6280000000000001</v>
+      </c>
+      <c r="Q48">
+        <v>2.286</v>
+      </c>
+      <c r="R48">
+        <v>2.1720000000000002</v>
+      </c>
+      <c r="S48">
+        <v>1.446</v>
+      </c>
+      <c r="T48">
+        <v>0.77700000000000002</v>
+      </c>
+      <c r="U48">
+        <v>4.036486654</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A49" s="17">
+        <v>41791.652083333334</v>
+      </c>
+      <c r="B49" s="17">
+        <v>41791.654861111114</v>
+      </c>
+      <c r="C49">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="D49">
+        <v>-9</v>
+      </c>
+      <c r="E49">
+        <v>-9</v>
+      </c>
+      <c r="F49">
+        <v>-9</v>
+      </c>
+      <c r="G49">
+        <v>-9</v>
+      </c>
+      <c r="H49">
+        <v>-9</v>
+      </c>
+      <c r="I49">
+        <v>-9</v>
+      </c>
+      <c r="J49" s="18">
+        <v>48</v>
+      </c>
+      <c r="K49" s="17">
+        <v>41791.645833333336</v>
+      </c>
+      <c r="L49" s="17">
+        <v>41791.654861111114</v>
+      </c>
+      <c r="M49">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="N49">
+        <v>0.21666667000000001</v>
+      </c>
+      <c r="O49">
+        <v>0.24923076899999999</v>
+      </c>
+      <c r="P49">
+        <v>0.64800000000000002</v>
+      </c>
+      <c r="Q49">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="R49">
+        <v>0.216</v>
+      </c>
+      <c r="S49">
+        <v>0.108</v>
+      </c>
+      <c r="T49">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="U49">
+        <v>3.3791105000000002E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A50" s="17">
+        <v>41791.776388888888</v>
+      </c>
+      <c r="B50" s="17">
+        <v>41792.115277777775</v>
+      </c>
+      <c r="C50">
+        <v>1.2150000000000001</v>
+      </c>
+      <c r="D50">
+        <v>1.8360000000000001</v>
+      </c>
+      <c r="E50">
+        <v>1.296</v>
+      </c>
+      <c r="F50">
+        <v>0.9</v>
+      </c>
+      <c r="G50">
+        <v>0.88200000000000001</v>
+      </c>
+      <c r="H50">
+        <v>0.621</v>
+      </c>
+      <c r="I50">
+        <v>9.8580000000000005</v>
+      </c>
+      <c r="J50" s="18">
+        <v>49</v>
+      </c>
+      <c r="K50" s="17">
+        <v>41791.770833333336</v>
+      </c>
+      <c r="L50" s="17">
+        <v>41792.115277777775</v>
+      </c>
+      <c r="M50">
+        <v>1.2150000000000001</v>
+      </c>
+      <c r="N50">
+        <v>8.2666666699999993</v>
+      </c>
+      <c r="O50">
+        <v>0.14697580599999999</v>
+      </c>
+      <c r="P50">
+        <v>1.8360000000000001</v>
+      </c>
+      <c r="Q50">
+        <v>1.296</v>
+      </c>
+      <c r="R50">
+        <v>0.9</v>
+      </c>
+      <c r="S50">
+        <v>0.88200000000000001</v>
+      </c>
+      <c r="T50">
+        <v>0.621</v>
+      </c>
+      <c r="U50">
+        <v>4.7132801000000004</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A51" s="17">
+        <v>41792.42083333333</v>
+      </c>
+      <c r="B51" s="17">
+        <v>41792.482638888891</v>
+      </c>
+      <c r="C51">
+        <v>0.495</v>
+      </c>
+      <c r="D51">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="E51">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="F51">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="G51">
+        <v>0.70199999999999996</v>
+      </c>
+      <c r="H51">
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="I51">
+        <v>3.0310000000000001</v>
+      </c>
+      <c r="J51" s="18">
+        <v>50</v>
+      </c>
+      <c r="K51" s="17">
+        <v>41792.416666666664</v>
+      </c>
+      <c r="L51" s="17">
+        <v>41792.482638888891</v>
+      </c>
+      <c r="M51">
+        <v>0.495</v>
+      </c>
+      <c r="N51">
+        <v>1.5833333300000001</v>
+      </c>
+      <c r="O51">
+        <v>0.31263157899999999</v>
+      </c>
+      <c r="P51">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="Q51">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="R51">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="S51">
+        <v>0.70199999999999996</v>
+      </c>
+      <c r="T51">
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="U51">
+        <v>1.4104965460000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A52" s="17">
+        <v>41795.251388888886</v>
+      </c>
+      <c r="B52" s="17">
+        <v>41795.252083333333</v>
+      </c>
+      <c r="C52">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="D52">
+        <v>-9</v>
+      </c>
+      <c r="E52">
+        <v>-9</v>
+      </c>
+      <c r="F52">
+        <v>-9</v>
+      </c>
+      <c r="G52">
+        <v>-9</v>
+      </c>
+      <c r="H52">
+        <v>-9</v>
+      </c>
+      <c r="I52">
+        <v>-9</v>
+      </c>
+      <c r="J52" s="18">
+        <v>51</v>
+      </c>
+      <c r="K52" s="17">
+        <v>41795.25</v>
+      </c>
+      <c r="L52" s="17">
+        <v>41795.252083333333</v>
+      </c>
+      <c r="M52">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="N52">
+        <v>0.05</v>
+      </c>
+      <c r="O52">
+        <v>0.18</v>
+      </c>
+      <c r="P52">
+        <v>0.108</v>
+      </c>
+      <c r="Q52">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="R52">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="S52">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="T52">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="U52">
+        <v>1.8832580000000001E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A53" s="17">
+        <v>41797.883333333331</v>
+      </c>
+      <c r="B53" s="17">
+        <v>41797.910416666666</v>
+      </c>
+      <c r="C53">
+        <v>2.7E-2</v>
+      </c>
+      <c r="D53">
+        <v>0.108</v>
+      </c>
+      <c r="E53">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="F53">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="G53">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="H53">
+        <v>-9</v>
+      </c>
+      <c r="I53">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="J53" s="18">
+        <v>52</v>
+      </c>
+      <c r="K53" s="17">
+        <v>41797.875</v>
+      </c>
+      <c r="L53" s="17">
+        <v>41797.910416666666</v>
+      </c>
+      <c r="M53">
+        <v>2.7E-2</v>
+      </c>
+      <c r="N53">
+        <v>0.85</v>
+      </c>
+      <c r="O53">
+        <v>3.1764705999999997E-2</v>
+      </c>
+      <c r="P53">
+        <v>0.108</v>
+      </c>
+      <c r="Q53">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="R53">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="S53">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="T53">
+        <v>2.7E-2</v>
+      </c>
+      <c r="U53">
+        <v>1.2762163E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A54" s="17">
+        <v>41801.275000000001</v>
+      </c>
+      <c r="B54" s="17">
+        <v>41801.463194444441</v>
+      </c>
+      <c r="C54">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="D54">
+        <v>0.108</v>
+      </c>
+      <c r="E54">
+        <v>0.108</v>
+      </c>
+      <c r="F54">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="G54">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="H54">
+        <v>6.3E-2</v>
+      </c>
+      <c r="I54">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="J54" s="18">
+        <v>53</v>
+      </c>
+      <c r="K54" s="17">
+        <v>41801.270833333336</v>
+      </c>
+      <c r="L54" s="17">
+        <v>41801.463194444441</v>
+      </c>
+      <c r="M54">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="N54">
+        <v>4.6166666699999999</v>
+      </c>
+      <c r="O54">
+        <v>3.1191336E-2</v>
+      </c>
+      <c r="P54">
+        <v>0.108</v>
+      </c>
+      <c r="Q54">
+        <v>0.108</v>
+      </c>
+      <c r="R54">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="S54">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="T54">
+        <v>6.3E-2</v>
+      </c>
+      <c r="U54">
+        <v>0.116884101</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A55" s="17">
+        <v>41801.549305555556</v>
+      </c>
+      <c r="B55" s="17">
+        <v>41801.699999999997</v>
+      </c>
+      <c r="C55">
+        <v>0.36</v>
+      </c>
+      <c r="D55">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="E55">
+        <v>0.27</v>
+      </c>
+      <c r="F55">
+        <v>0.18</v>
+      </c>
+      <c r="G55">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="H55">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="I55">
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="J55" s="18">
+        <v>54</v>
+      </c>
+      <c r="K55" s="17">
+        <v>41801.541666666664</v>
+      </c>
+      <c r="L55" s="17">
+        <v>41801.699999999997</v>
+      </c>
+      <c r="M55">
+        <v>0.36</v>
+      </c>
+      <c r="N55">
+        <v>3.8</v>
+      </c>
+      <c r="O55">
+        <v>9.4736842000000002E-2</v>
+      </c>
+      <c r="P55">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="Q55">
+        <v>0.27</v>
+      </c>
+      <c r="R55">
+        <v>0.18</v>
+      </c>
+      <c r="S55">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="T55">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="U55">
+        <v>0.18795858100000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A56" s="17">
+        <v>41805.599999999999</v>
+      </c>
+      <c r="B56" s="17">
+        <v>41805.600694444445</v>
+      </c>
+      <c r="C56">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="D56">
+        <v>-9</v>
+      </c>
+      <c r="E56">
+        <v>-9</v>
+      </c>
+      <c r="F56">
+        <v>-9</v>
+      </c>
+      <c r="G56">
+        <v>-9</v>
+      </c>
+      <c r="H56">
+        <v>-9</v>
+      </c>
+      <c r="I56">
+        <v>-9</v>
+      </c>
+      <c r="J56" s="18">
+        <v>55</v>
+      </c>
+      <c r="K56" s="17">
+        <v>41805.59375</v>
+      </c>
+      <c r="L56" s="17">
+        <v>41805.600694444445</v>
+      </c>
+      <c r="M56">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="N56">
+        <v>0.16666666999999999</v>
+      </c>
+      <c r="O56">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="P56">
+        <v>0.108</v>
+      </c>
+      <c r="Q56">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="R56">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="S56">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="T56">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="U56">
+        <v>2.163636E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A57" s="17">
+        <v>41806.961805555555</v>
+      </c>
+      <c r="B57" s="17">
+        <v>41807.181944444441</v>
+      </c>
+      <c r="C57">
+        <v>1.417</v>
+      </c>
+      <c r="D57">
+        <v>3.8159999999999998</v>
+      </c>
+      <c r="E57">
+        <v>2.3940000000000001</v>
+      </c>
+      <c r="F57">
+        <v>1.6319999999999999</v>
+      </c>
+      <c r="G57">
+        <v>0.97</v>
+      </c>
+      <c r="H57">
+        <v>0.72099999999999997</v>
+      </c>
+      <c r="I57">
+        <v>13.073</v>
+      </c>
+      <c r="J57" s="18">
+        <v>56</v>
+      </c>
+      <c r="K57" s="17">
+        <v>41806.958333333336</v>
+      </c>
+      <c r="L57" s="17">
+        <v>41807.181944444441</v>
+      </c>
+      <c r="M57">
+        <v>1.417</v>
+      </c>
+      <c r="N57">
+        <v>5.3666666699999999</v>
+      </c>
+      <c r="O57">
+        <v>0.26403726700000002</v>
+      </c>
+      <c r="P57">
+        <v>3.8159999999999998</v>
+      </c>
+      <c r="Q57">
+        <v>2.3940000000000001</v>
+      </c>
+      <c r="R57">
+        <v>1.6319999999999999</v>
+      </c>
+      <c r="S57">
+        <v>0.97</v>
+      </c>
+      <c r="T57">
+        <v>0.72099999999999997</v>
+      </c>
+      <c r="U57">
+        <v>5.6546881649999996</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A58" s="17">
+        <v>41808.09375</v>
+      </c>
+      <c r="B58" s="17">
+        <v>41808.109027777777</v>
+      </c>
+      <c r="C58">
+        <v>0.108</v>
+      </c>
+      <c r="D58">
+        <v>0.64800000000000002</v>
+      </c>
+      <c r="E58">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="F58">
+        <v>0.216</v>
+      </c>
+      <c r="G58">
+        <v>-9</v>
+      </c>
+      <c r="H58">
+        <v>-9</v>
+      </c>
+      <c r="I58">
+        <v>-9</v>
+      </c>
+      <c r="J58" s="18">
+        <v>57</v>
+      </c>
+      <c r="K58" s="17">
+        <v>41808.09375</v>
+      </c>
+      <c r="L58" s="17">
+        <v>41808.109027777777</v>
+      </c>
+      <c r="M58">
+        <v>0.108</v>
+      </c>
+      <c r="N58">
+        <v>0.36666666999999997</v>
+      </c>
+      <c r="O58">
+        <v>0.29454545500000001</v>
+      </c>
+      <c r="P58">
+        <v>0.64800000000000002</v>
+      </c>
+      <c r="Q58">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="R58">
+        <v>0.216</v>
+      </c>
+      <c r="S58">
+        <v>0.216</v>
+      </c>
+      <c r="T58">
+        <v>0.108</v>
+      </c>
+      <c r="U58">
+        <v>0.101518988</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A59" s="17">
+        <v>41808.241666666669</v>
+      </c>
+      <c r="B59" s="17">
+        <v>41808.449999999997</v>
+      </c>
+      <c r="C59">
+        <v>1.4039999999999999</v>
+      </c>
+      <c r="D59">
+        <v>2.9159999999999999</v>
+      </c>
+      <c r="E59">
+        <v>2.2679999999999998</v>
+      </c>
+      <c r="F59">
+        <v>1.62</v>
+      </c>
+      <c r="G59">
+        <v>0.88200000000000001</v>
+      </c>
+      <c r="H59">
+        <v>0.51300000000000001</v>
+      </c>
+      <c r="I59">
+        <v>11.292999999999999</v>
+      </c>
+      <c r="J59" s="18">
+        <v>58</v>
+      </c>
+      <c r="K59" s="17">
+        <v>41808.239583333336</v>
+      </c>
+      <c r="L59" s="17">
+        <v>41808.449999999997</v>
+      </c>
+      <c r="M59">
+        <v>1.4039999999999999</v>
+      </c>
+      <c r="N59">
+        <v>5.05</v>
+      </c>
+      <c r="O59">
+        <v>0.27801980199999998</v>
+      </c>
+      <c r="P59">
+        <v>2.9159999999999999</v>
+      </c>
+      <c r="Q59">
+        <v>2.2679999999999998</v>
+      </c>
+      <c r="R59">
+        <v>1.62</v>
+      </c>
+      <c r="S59">
+        <v>0.88200000000000001</v>
+      </c>
+      <c r="T59">
+        <v>0.51300000000000001</v>
+      </c>
+      <c r="U59">
+        <v>4.3808351270000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A60" s="17">
+        <v>41809.853472222225</v>
+      </c>
+      <c r="B60" s="17">
+        <v>41809.995138888888</v>
+      </c>
+      <c r="C60">
+        <v>0.315</v>
+      </c>
+      <c r="D60">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="E60">
+        <v>0.64800000000000002</v>
+      </c>
+      <c r="F60">
+        <v>0.504</v>
+      </c>
+      <c r="G60">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="H60">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="I60">
+        <v>1.1120000000000001</v>
+      </c>
+      <c r="J60" s="18">
+        <v>59</v>
+      </c>
+      <c r="K60" s="17">
+        <v>41809.84375</v>
+      </c>
+      <c r="L60" s="17">
+        <v>41809.995138888888</v>
+      </c>
+      <c r="M60">
+        <v>0.315</v>
+      </c>
+      <c r="N60">
+        <v>3.6333333300000001</v>
+      </c>
+      <c r="O60">
+        <v>8.6697248000000005E-2</v>
+      </c>
+      <c r="P60">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="Q60">
+        <v>0.64800000000000002</v>
+      </c>
+      <c r="R60">
+        <v>0.504</v>
+      </c>
+      <c r="S60">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="T60">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="U60">
+        <v>0.68331685900000005</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A61" s="17">
+        <v>41810.104861111111</v>
+      </c>
+      <c r="B61" s="17">
+        <v>41810.105555555558</v>
+      </c>
+      <c r="C61">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="D61">
+        <v>-9</v>
+      </c>
+      <c r="E61">
+        <v>-9</v>
+      </c>
+      <c r="F61">
+        <v>-9</v>
+      </c>
+      <c r="G61">
+        <v>-9</v>
+      </c>
+      <c r="H61">
+        <v>-9</v>
+      </c>
+      <c r="I61">
+        <v>-9</v>
+      </c>
+      <c r="J61" s="18">
+        <v>60</v>
+      </c>
+      <c r="K61" s="17">
+        <v>41810.104166666664</v>
+      </c>
+      <c r="L61" s="17">
+        <v>41810.105555555558</v>
+      </c>
+      <c r="M61">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="N61">
+        <v>3.3333330000000001E-2</v>
+      </c>
+      <c r="O61">
+        <v>0.27</v>
+      </c>
+      <c r="P61">
+        <v>0.108</v>
+      </c>
+      <c r="Q61">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="R61">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="S61">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="T61">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="U61">
+        <v>1.788834E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A62" s="17">
+        <v>41810.190972222219</v>
+      </c>
+      <c r="B62" s="17">
+        <v>41810.386111111111</v>
+      </c>
+      <c r="C62">
+        <v>0.621</v>
+      </c>
+      <c r="D62">
+        <v>0.432</v>
+      </c>
+      <c r="E62">
+        <v>0.378</v>
+      </c>
+      <c r="F62">
+        <v>0.36</v>
+      </c>
+      <c r="G62">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="H62">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="I62">
+        <v>1.665</v>
+      </c>
+      <c r="J62" s="18">
+        <v>61</v>
+      </c>
+      <c r="K62" s="17">
+        <v>41810.1875</v>
+      </c>
+      <c r="L62" s="17">
+        <v>41810.386111111111</v>
+      </c>
+      <c r="M62">
+        <v>0.621</v>
+      </c>
+      <c r="N62">
+        <v>4.7666666700000002</v>
+      </c>
+      <c r="O62">
+        <v>0.13027971999999999</v>
+      </c>
+      <c r="P62">
+        <v>0.432</v>
+      </c>
+      <c r="Q62">
+        <v>0.378</v>
+      </c>
+      <c r="R62">
+        <v>0.36</v>
+      </c>
+      <c r="S62">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="T62">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="U62">
+        <v>1.5221927479999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A63" s="17">
+        <v>41811.450694444444</v>
+      </c>
+      <c r="B63" s="17">
+        <v>41811.455555555556</v>
+      </c>
+      <c r="C63">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="D63">
+        <v>1.728</v>
+      </c>
+      <c r="E63">
+        <v>-9</v>
+      </c>
+      <c r="F63">
+        <v>-9</v>
+      </c>
+      <c r="G63">
+        <v>-9</v>
+      </c>
+      <c r="H63">
+        <v>-9</v>
+      </c>
+      <c r="I63">
+        <v>-9</v>
+      </c>
+      <c r="J63" s="18">
+        <v>62</v>
+      </c>
+      <c r="K63" s="17">
+        <v>41811.447916666664</v>
+      </c>
+      <c r="L63" s="17">
+        <v>41811.455555555556</v>
+      </c>
+      <c r="M63">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="N63">
+        <v>0.18333332999999999</v>
+      </c>
+      <c r="O63">
+        <v>0.93272727300000002</v>
+      </c>
+      <c r="P63">
+        <v>1.728</v>
+      </c>
+      <c r="Q63">
+        <v>1.026</v>
+      </c>
+      <c r="R63">
+        <v>0.68400000000000005</v>
+      </c>
+      <c r="S63">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="T63">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="U63">
+        <v>0.18552540300000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A64" s="17">
+        <v>41811.643055555556</v>
+      </c>
+      <c r="B64" s="17">
+        <v>41811.699305555558</v>
+      </c>
+      <c r="C64">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="D64">
+        <v>0.108</v>
+      </c>
+      <c r="E64">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="F64">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="G64">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="H64">
+        <v>2.7E-2</v>
+      </c>
+      <c r="I64">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="J64" s="18">
+        <v>63</v>
+      </c>
+      <c r="K64" s="17">
+        <v>41811.643055555556</v>
+      </c>
+      <c r="L64" s="17">
+        <v>41811.699305555558</v>
+      </c>
+      <c r="M64">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="N64">
+        <v>1.35</v>
+      </c>
+      <c r="O64">
+        <v>3.3333333E-2</v>
+      </c>
+      <c r="P64">
+        <v>0.108</v>
+      </c>
+      <c r="Q64">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="R64">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="S64">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="T64">
+        <v>2.7E-2</v>
+      </c>
+      <c r="U64">
+        <v>1.9594662999999998E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A65" s="17">
+        <v>41813.163888888892</v>
+      </c>
+      <c r="B65" s="17">
+        <v>41813.247916666667</v>
+      </c>
+      <c r="C65">
+        <v>0.84599999999999997</v>
+      </c>
+      <c r="D65">
+        <v>1.62</v>
+      </c>
+      <c r="E65">
+        <v>1.296</v>
+      </c>
+      <c r="F65">
+        <v>1.26</v>
+      </c>
+      <c r="G65">
+        <v>0.99</v>
+      </c>
+      <c r="H65">
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="I65">
+        <v>7.5250000000000004</v>
+      </c>
+      <c r="J65" s="18">
+        <v>64</v>
+      </c>
+      <c r="K65" s="17">
+        <v>41813.15625</v>
+      </c>
+      <c r="L65" s="17">
+        <v>41813.247916666667</v>
+      </c>
+      <c r="M65">
+        <v>0.84599999999999997</v>
+      </c>
+      <c r="N65">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="O65">
+        <v>0.38454545499999998</v>
+      </c>
+      <c r="P65">
+        <v>1.62</v>
+      </c>
+      <c r="Q65">
+        <v>1.296</v>
+      </c>
+      <c r="R65">
+        <v>1.26</v>
+      </c>
+      <c r="S65">
+        <v>0.99</v>
+      </c>
+      <c r="T65">
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="U65">
+        <v>2.2713900379999998</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A66" s="17">
+        <v>41813.941666666666</v>
+      </c>
+      <c r="B66" s="17">
+        <v>41813.998611111114</v>
+      </c>
+      <c r="C66">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="D66">
+        <v>0.432</v>
+      </c>
+      <c r="E66">
+        <v>0.378</v>
+      </c>
+      <c r="F66">
+        <v>0.36</v>
+      </c>
+      <c r="G66">
+        <v>0.27</v>
+      </c>
+      <c r="H66">
+        <v>0.18</v>
+      </c>
+      <c r="I66">
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="J66" s="18">
+        <v>65</v>
+      </c>
+      <c r="K66" s="17">
+        <v>41813.9375</v>
+      </c>
+      <c r="L66" s="17">
+        <v>41813.998611111114</v>
+      </c>
+      <c r="M66">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="N66">
+        <v>1.46666667</v>
+      </c>
+      <c r="O66">
+        <v>0.14113636399999999</v>
+      </c>
+      <c r="P66">
+        <v>0.432</v>
+      </c>
+      <c r="Q66">
+        <v>0.378</v>
+      </c>
+      <c r="R66">
+        <v>0.36</v>
+      </c>
+      <c r="S66">
+        <v>0.27</v>
+      </c>
+      <c r="T66">
+        <v>0.18</v>
+      </c>
+      <c r="U66">
+        <v>0.32414346199999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A67" s="17">
+        <v>41814.45208333333</v>
+      </c>
+      <c r="B67" s="17">
+        <v>41814.452777777777</v>
+      </c>
+      <c r="C67">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="D67">
+        <v>-9</v>
+      </c>
+      <c r="E67">
+        <v>-9</v>
+      </c>
+      <c r="F67">
+        <v>-9</v>
+      </c>
+      <c r="G67">
+        <v>-9</v>
+      </c>
+      <c r="H67">
+        <v>-9</v>
+      </c>
+      <c r="I67">
+        <v>-9</v>
+      </c>
+      <c r="J67" s="18">
+        <v>66</v>
+      </c>
+      <c r="K67" s="17">
+        <v>41814.447916666664</v>
+      </c>
+      <c r="L67" s="17">
+        <v>41814.452777777777</v>
+      </c>
+      <c r="M67">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="N67">
+        <v>0.11666667</v>
+      </c>
+      <c r="O67">
+        <v>7.7142856999999995E-2</v>
+      </c>
+      <c r="P67">
+        <v>0.108</v>
+      </c>
+      <c r="Q67">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="R67">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="S67">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="T67">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="U67">
+        <v>2.080574E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A68" s="17">
+        <v>41818.522222222222</v>
+      </c>
+      <c r="B68" s="17">
+        <v>41818.522916666669</v>
+      </c>
+      <c r="C68">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="D68">
+        <v>-9</v>
+      </c>
+      <c r="E68">
+        <v>-9</v>
+      </c>
+      <c r="F68">
+        <v>-9</v>
+      </c>
+      <c r="G68">
+        <v>-9</v>
+      </c>
+      <c r="H68">
+        <v>-9</v>
+      </c>
+      <c r="I68">
+        <v>-9</v>
+      </c>
+      <c r="J68" s="18">
+        <v>67</v>
+      </c>
+      <c r="K68" s="17">
+        <v>41818.520833333336</v>
+      </c>
+      <c r="L68" s="17">
+        <v>41818.522916666669</v>
+      </c>
+      <c r="M68">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="N68">
+        <v>0.05</v>
+      </c>
+      <c r="O68">
+        <v>0.18</v>
+      </c>
+      <c r="P68">
+        <v>0.108</v>
+      </c>
+      <c r="Q68">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="R68">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="S68">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="T68">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="U68">
+        <v>1.8832580000000001E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A69" s="17">
+        <v>41819.159722222219</v>
+      </c>
+      <c r="B69" s="17">
+        <v>41819.22152777778</v>
+      </c>
+      <c r="C69">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="D69">
+        <v>0.216</v>
+      </c>
+      <c r="E69">
+        <v>0.108</v>
+      </c>
+      <c r="F69">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="G69">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="H69">
+        <v>2.7E-2</v>
+      </c>
+      <c r="I69">
+        <v>0.02</v>
+      </c>
+      <c r="J69" s="18">
+        <v>68</v>
+      </c>
+      <c r="K69" s="17">
+        <v>41819.15625</v>
+      </c>
+      <c r="L69" s="17">
+        <v>41819.22152777778</v>
+      </c>
+      <c r="M69">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="N69">
+        <v>1.56666667</v>
+      </c>
+      <c r="O69">
+        <v>2.8723404000000001E-2</v>
+      </c>
+      <c r="P69">
+        <v>0.216</v>
+      </c>
+      <c r="Q69">
+        <v>0.108</v>
+      </c>
+      <c r="R69">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="S69">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="T69">
+        <v>2.7E-2</v>
+      </c>
+      <c r="U69">
+        <v>2.4609721000000001E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A70" s="17">
+        <v>41819.970833333333</v>
+      </c>
+      <c r="B70" s="17">
+        <v>41820.041666666664</v>
+      </c>
+      <c r="C70">
+        <v>0.315</v>
+      </c>
+      <c r="D70">
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="E70">
+        <v>0.48599999999999999</v>
+      </c>
+      <c r="F70">
+        <v>0.432</v>
+      </c>
+      <c r="G70">
+        <v>0.378</v>
+      </c>
+      <c r="H70">
+        <v>0.252</v>
+      </c>
+      <c r="I70">
+        <v>1.026</v>
+      </c>
+      <c r="J70" s="18">
+        <v>69</v>
+      </c>
+      <c r="K70" s="17">
+        <v>41819.96875</v>
+      </c>
+      <c r="L70" s="17">
+        <v>41820.041666666664</v>
+      </c>
+      <c r="M70">
+        <v>0.315</v>
+      </c>
+      <c r="N70">
+        <v>1.75</v>
+      </c>
+      <c r="O70">
+        <v>0.18</v>
+      </c>
+      <c r="P70">
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="Q70">
+        <v>0.48599999999999999</v>
+      </c>
+      <c r="R70">
+        <v>0.432</v>
+      </c>
+      <c r="S70">
+        <v>0.378</v>
+      </c>
+      <c r="T70">
+        <v>0.252</v>
+      </c>
+      <c r="U70">
+        <v>0.54433390999999998</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A71" s="17">
+        <v>41820.745833333334</v>
+      </c>
+      <c r="B71" s="17">
+        <v>41820.9375</v>
+      </c>
+      <c r="C71">
+        <v>0.63900000000000001</v>
+      </c>
+      <c r="D71">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="E71">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="F71">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="G71">
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="H71">
+        <v>0.45</v>
+      </c>
+      <c r="I71">
+        <v>3.0579999999999998</v>
+      </c>
+      <c r="J71" s="18">
+        <v>70</v>
+      </c>
+      <c r="K71" s="17">
+        <v>41820.739583333336</v>
+      </c>
+      <c r="L71" s="17">
+        <v>41820.9375</v>
+      </c>
+      <c r="M71">
+        <v>0.63900000000000001</v>
+      </c>
+      <c r="N71">
+        <v>4.75</v>
+      </c>
+      <c r="O71">
+        <v>0.13452631600000001</v>
+      </c>
+      <c r="P71">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="Q71">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="R71">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="S71">
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="T71">
+        <v>0.45</v>
+      </c>
+      <c r="U71">
+        <v>2.0774283320000002</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A72" s="17">
+        <v>41822.306944444441</v>
+      </c>
+      <c r="B72" s="17">
+        <v>41822.430555555555</v>
+      </c>
+      <c r="C72">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="D72">
+        <v>0.108</v>
+      </c>
+      <c r="E72">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="F72">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="G72">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="H72">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="I72">
+        <v>1.6E-2</v>
+      </c>
+      <c r="J72" s="18">
+        <v>71</v>
+      </c>
+      <c r="K72" s="17">
+        <v>41822.302083333336</v>
+      </c>
+      <c r="L72" s="17">
+        <v>41822.430555555555</v>
+      </c>
+      <c r="M72">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="N72">
+        <v>3.0833333299999999</v>
+      </c>
+      <c r="O72">
+        <v>1.7513514000000001E-2</v>
+      </c>
+      <c r="P72">
+        <v>0.108</v>
+      </c>
+      <c r="Q72">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="R72">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="S72">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="T72">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="U72">
+        <v>2.0033221E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A73" s="17">
+        <v>41822.652083333334</v>
+      </c>
+      <c r="B73" s="17">
+        <v>41822.652777777781</v>
+      </c>
+      <c r="C73">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="D73">
+        <v>-9</v>
+      </c>
+      <c r="E73">
+        <v>-9</v>
+      </c>
+      <c r="F73">
+        <v>-9</v>
+      </c>
+      <c r="G73">
+        <v>-9</v>
+      </c>
+      <c r="H73">
+        <v>-9</v>
+      </c>
+      <c r="I73">
+        <v>-9</v>
+      </c>
+      <c r="J73" s="18">
+        <v>72</v>
+      </c>
+      <c r="K73" s="17">
+        <v>41822.645833333336</v>
+      </c>
+      <c r="L73" s="17">
+        <v>41822.652777777781</v>
+      </c>
+      <c r="M73">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="N73">
+        <v>0.16666666999999999</v>
+      </c>
+      <c r="O73">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="P73">
+        <v>0.108</v>
+      </c>
+      <c r="Q73">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="R73">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="S73">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="T73">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="U73">
+        <v>2.163636E-3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A74" s="17">
+        <v>41827.913194444445</v>
+      </c>
+      <c r="B74" s="17">
+        <v>41828.053472222222</v>
+      </c>
+      <c r="C74">
+        <v>0.495</v>
+      </c>
+      <c r="D74">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="E74">
+        <v>0.59399999999999997</v>
+      </c>
+      <c r="F74">
+        <v>0.504</v>
+      </c>
+      <c r="G74">
+        <v>0.432</v>
+      </c>
+      <c r="H74">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="I74">
+        <v>1.8</v>
+      </c>
+      <c r="J74" s="18">
+        <v>73</v>
+      </c>
+      <c r="K74" s="17">
+        <v>41827.90625</v>
+      </c>
+      <c r="L74" s="17">
+        <v>41828.053472222222</v>
+      </c>
+      <c r="M74">
+        <v>0.495</v>
+      </c>
+      <c r="N74">
+        <v>3.53333333</v>
+      </c>
+      <c r="O74">
+        <v>0.14009434000000001</v>
+      </c>
+      <c r="P74">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="Q74">
+        <v>0.59399999999999997</v>
+      </c>
+      <c r="R74">
+        <v>0.504</v>
+      </c>
+      <c r="S74">
+        <v>0.432</v>
+      </c>
+      <c r="T74">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="U74">
+        <v>0.92949783100000005</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A75" s="17">
+        <v>41828.523611111108</v>
+      </c>
+      <c r="B75" s="17">
+        <v>41828.524305555555</v>
+      </c>
+      <c r="C75">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="D75">
+        <v>-9</v>
+      </c>
+      <c r="E75">
+        <v>-9</v>
+      </c>
+      <c r="F75">
+        <v>-9</v>
+      </c>
+      <c r="G75">
+        <v>-9</v>
+      </c>
+      <c r="H75">
+        <v>-9</v>
+      </c>
+      <c r="I75">
+        <v>-9</v>
+      </c>
+      <c r="J75" s="18">
+        <v>74</v>
+      </c>
+      <c r="K75" s="17">
+        <v>41828.520833333336</v>
+      </c>
+      <c r="L75" s="17">
+        <v>41828.524305555555</v>
+      </c>
+      <c r="M75">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="N75">
+        <v>8.3333329999999997E-2</v>
+      </c>
+      <c r="O75">
+        <v>0.108</v>
+      </c>
+      <c r="P75">
+        <v>0.108</v>
+      </c>
+      <c r="Q75">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="R75">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="S75">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="T75">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="U75">
+        <v>2.0022180000000001E-3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A76" s="17">
+        <v>41832.758333333331</v>
+      </c>
+      <c r="B76" s="17">
+        <v>41832.759027777778</v>
+      </c>
+      <c r="C76">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="D76">
+        <v>-9</v>
+      </c>
+      <c r="E76">
+        <v>-9</v>
+      </c>
+      <c r="F76">
+        <v>-9</v>
+      </c>
+      <c r="G76">
+        <v>-9</v>
+      </c>
+      <c r="H76">
+        <v>-9</v>
+      </c>
+      <c r="I76">
+        <v>-9</v>
+      </c>
+      <c r="J76" s="18">
+        <v>75</v>
+      </c>
+      <c r="K76" s="17">
+        <v>41832.75</v>
+      </c>
+      <c r="L76" s="17">
+        <v>41832.759027777778</v>
+      </c>
+      <c r="M76">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="N76">
+        <v>0.21666667000000001</v>
+      </c>
+      <c r="O76">
+        <v>4.1538461999999998E-2</v>
+      </c>
+      <c r="P76">
+        <v>0.108</v>
+      </c>
+      <c r="Q76">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="R76">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="S76">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="T76">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="U76">
+        <v>2.2247349999999998E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A77" s="17">
+        <v>41832.851388888892</v>
+      </c>
+      <c r="B77" s="17">
+        <v>41832.96875</v>
+      </c>
+      <c r="C77">
+        <v>0.89100000000000001</v>
+      </c>
+      <c r="D77">
+        <v>1.4039999999999999</v>
+      </c>
+      <c r="E77">
+        <v>1.1879999999999999</v>
+      </c>
+      <c r="F77">
+        <v>1.1519999999999999</v>
+      </c>
+      <c r="G77">
+        <v>1.026</v>
+      </c>
+      <c r="H77">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="I77">
+        <v>8.2289999999999992</v>
+      </c>
+      <c r="J77" s="18">
+        <v>76</v>
+      </c>
+      <c r="K77" s="17">
+        <v>41832.84375</v>
+      </c>
+      <c r="L77" s="17">
+        <v>41832.96875</v>
+      </c>
+      <c r="M77">
+        <v>0.89100000000000001</v>
+      </c>
+      <c r="N77">
+        <v>3</v>
+      </c>
+      <c r="O77">
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="P77">
+        <v>1.4039999999999999</v>
+      </c>
+      <c r="Q77">
+        <v>1.1879999999999999</v>
+      </c>
+      <c r="R77">
+        <v>1.1519999999999999</v>
+      </c>
+      <c r="S77">
+        <v>1.026</v>
+      </c>
+      <c r="T77">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="U77">
+        <v>2.5271365110000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A78" s="17">
+        <v>41835.145833333336</v>
+      </c>
+      <c r="B78" s="17">
+        <v>41835.228472222225</v>
+      </c>
+      <c r="C78">
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="D78">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="E78">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="F78">
+        <v>0.64800000000000002</v>
+      </c>
+      <c r="G78">
+        <v>0.52200000000000002</v>
+      </c>
+      <c r="H78">
+        <v>0.378</v>
+      </c>
+      <c r="I78">
+        <v>2.4550000000000001</v>
+      </c>
+      <c r="J78" s="18">
+        <v>77</v>
+      </c>
+      <c r="K78" s="17">
+        <v>41835.145833333336</v>
+      </c>
+      <c r="L78" s="17">
+        <v>41835.228472222225</v>
+      </c>
+      <c r="M78">
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="N78">
+        <v>1.98333333</v>
+      </c>
+      <c r="O78">
+        <v>0.27680672299999998</v>
+      </c>
+      <c r="P78">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="Q78">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="R78">
+        <v>0.64800000000000002</v>
+      </c>
+      <c r="S78">
+        <v>0.52200000000000002</v>
+      </c>
+      <c r="T78">
+        <v>0.378</v>
+      </c>
+      <c r="U78">
+        <v>0.57376012200000004</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A79" s="17">
+        <v>41835.49722222222</v>
+      </c>
+      <c r="B79" s="17">
+        <v>41835.563888888886</v>
+      </c>
+      <c r="C79">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="D79">
+        <v>0.216</v>
+      </c>
+      <c r="E79">
+        <v>0.108</v>
+      </c>
+      <c r="F79">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="G79">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="H79">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="I79">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="J79" s="18">
+        <v>78</v>
+      </c>
+      <c r="K79" s="17">
+        <v>41835.489583333336</v>
+      </c>
+      <c r="L79" s="17">
+        <v>41835.563888888886</v>
+      </c>
+      <c r="M79">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="N79">
+        <v>1.78333333</v>
+      </c>
+      <c r="O79">
+        <v>2.0186915999999999E-2</v>
+      </c>
+      <c r="P79">
+        <v>0.216</v>
+      </c>
+      <c r="Q79">
+        <v>0.108</v>
+      </c>
+      <c r="R79">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="S79">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="T79">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="U79">
+        <v>1.5694158E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Rainmaker EI testing.xlsx
+++ b/Rainmaker EI testing.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6030" yWindow="795" windowWidth="19980" windowHeight="10035" activeTab="1"/>
+    <workbookView xWindow="6040" yWindow="800" windowWidth="22040" windowHeight="13020" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="WBF3" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1001,36 +1006,36 @@
       <selection pane="bottomLeft" activeCell="G154" sqref="G154"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" style="12" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.83203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" style="12" customWidth="1"/>
+    <col min="9" max="9" width="12.1640625" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" customWidth="1"/>
     <col min="13" max="13" width="11" customWidth="1"/>
     <col min="14" max="14" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="B2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="B3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="B5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="B6" t="s">
         <v>14</v>
       </c>
@@ -1047,7 +1052,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>41114.084027777775</v>
       </c>
@@ -1063,7 +1068,7 @@
         <v>5.4725772279879557E-7</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" s="4" customFormat="1">
       <c r="A8" s="3">
         <v>41114.191666666666</v>
       </c>
@@ -1085,7 +1090,7 @@
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>41114.204861111109</v>
       </c>
@@ -1105,7 +1110,7 @@
         <v>3.637394581243937</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" s="4" customFormat="1">
       <c r="A10" s="3">
         <v>41114.216666666667</v>
       </c>
@@ -1131,7 +1136,7 @@
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>41115.288194444445</v>
       </c>
@@ -1147,7 +1152,7 @@
         <v>3.4996771224876021E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" s="1">
         <v>41115.289583333331</v>
       </c>
@@ -1163,7 +1168,7 @@
         <v>0.27000000053434631</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="1">
         <v>41115.293749999997</v>
       </c>
@@ -1182,7 +1187,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" s="9" customFormat="1">
       <c r="A14" s="8">
         <v>41115.974305555559</v>
       </c>
@@ -1210,7 +1215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" s="1">
         <v>41115.974999999999</v>
       </c>
@@ -1239,7 +1244,7 @@
         <v>18.54126528207485</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="A16" s="1">
         <v>41115.975694444445</v>
       </c>
@@ -1268,7 +1273,7 @@
         <v>8.2742238194997597</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11">
       <c r="A17" s="1">
         <v>41115.977083333331</v>
       </c>
@@ -1297,7 +1302,7 @@
         <v>16.548446695717907</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11">
       <c r="A18" s="1">
         <v>41115.977777777778</v>
       </c>
@@ -1326,7 +1331,7 @@
         <v>29.560484080351028</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11">
       <c r="A19" s="1">
         <v>41115.978472222225</v>
       </c>
@@ -1355,7 +1360,7 @@
         <v>18.541266849190229</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11">
       <c r="A20" s="1">
         <v>41115.979166666664</v>
       </c>
@@ -1384,7 +1389,7 @@
         <v>18.541263684835812</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11">
       <c r="A21" s="1">
         <v>41115.979861111111</v>
       </c>
@@ -1413,7 +1418,7 @@
         <v>18.541266849190229</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11">
       <c r="A22" s="1">
         <v>41115.988888888889</v>
       </c>
@@ -1442,7 +1447,7 @@
         <v>4.5870713279984026</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11">
       <c r="A23" s="1">
         <v>41115.994444444441</v>
       </c>
@@ -1471,7 +1476,7 @@
         <v>5.284993572345356</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11">
       <c r="A24" s="1">
         <v>41115.995138888888</v>
       </c>
@@ -1500,7 +1505,7 @@
         <v>8.2742238194997597</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11">
       <c r="A25" s="1">
         <v>41116.002083333333</v>
       </c>
@@ -1529,7 +1534,7 @@
         <v>4.964223824018176</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11">
       <c r="A26" s="1">
         <v>41116.00277777778</v>
       </c>
@@ -1558,7 +1563,7 @@
         <v>18.541266849190229</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11">
       <c r="A27" s="1">
         <v>41116.003472222219</v>
       </c>
@@ -1587,7 +1592,7 @@
         <v>29.560480931056816</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11">
       <c r="A28" s="1">
         <v>41116.004166666666</v>
       </c>
@@ -1616,7 +1621,7 @@
         <v>8.2742238194997597</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11">
       <c r="A29" s="1">
         <v>41116.004861111112</v>
       </c>
@@ -1645,7 +1650,7 @@
         <v>18.541266849190229</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11">
       <c r="A30" s="1">
         <v>41116.005555555559</v>
       </c>
@@ -1674,7 +1679,7 @@
         <v>18.541266849190229</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11">
       <c r="A31" s="1">
         <v>41116.006249999999</v>
       </c>
@@ -1703,7 +1708,7 @@
         <v>8.2742238345611465</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11">
       <c r="A32" s="1">
         <v>41116.007638888892</v>
       </c>
@@ -1732,7 +1737,7 @@
         <v>16.548448277894671</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11">
       <c r="A33" s="1">
         <v>41116.008333333331</v>
       </c>
@@ -1761,7 +1766,7 @@
         <v>18.541262087595889</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11">
       <c r="A34" s="1">
         <v>41116.009027777778</v>
       </c>
@@ -1790,7 +1795,7 @@
         <v>29.560485677589327</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11">
       <c r="A35" s="1">
         <v>41116.009722222225</v>
       </c>
@@ -1819,7 +1824,7 @@
         <v>18.541266849190229</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11">
       <c r="A36" s="1">
         <v>41116.010416666664</v>
       </c>
@@ -1848,7 +1853,7 @@
         <v>18.541266879313003</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11">
       <c r="A37" s="1">
         <v>41116.011111111111</v>
       </c>
@@ -1877,7 +1882,7 @@
         <v>8.2742191875019167</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11">
       <c r="A38" s="1">
         <v>41116.011805555558</v>
       </c>
@@ -1906,7 +1911,7 @@
         <v>18.541266849190229</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11">
       <c r="A39" s="1">
         <v>41116.012499999997</v>
       </c>
@@ -1935,7 +1940,7 @@
         <v>18.541266879313003</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11">
       <c r="A40" s="1">
         <v>41116.013888888891</v>
       </c>
@@ -1964,7 +1969,7 @@
         <v>7.2778145338519815</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11">
       <c r="A41" s="1">
         <v>41116.01458333333</v>
       </c>
@@ -1993,7 +1998,7 @@
         <v>8.2742238345611465</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11">
       <c r="A42" s="1">
         <v>41116.015277777777</v>
       </c>
@@ -2022,7 +2027,7 @@
         <v>18.541266849190229</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11">
       <c r="A43" s="1">
         <v>41116.015972222223</v>
       </c>
@@ -2051,7 +2056,7 @@
         <v>41.068169243733635</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11">
       <c r="A44" s="1">
         <v>41116.01666666667</v>
       </c>
@@ -2080,7 +2085,7 @@
         <v>41.06815966029675</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11">
       <c r="A45" s="1">
         <v>41116.017361111109</v>
       </c>
@@ -2109,7 +2114,7 @@
         <v>53.097045360057464</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11">
       <c r="A46" s="1">
         <v>41116.018055555556</v>
       </c>
@@ -2138,7 +2143,7 @@
         <v>52.939073467878899</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11">
       <c r="A47" s="1">
         <v>41116.018750000003</v>
       </c>
@@ -2167,7 +2172,7 @@
         <v>41.068169243733635</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11">
       <c r="A48" s="1">
         <v>41116.019444444442</v>
       </c>
@@ -2196,7 +2201,7 @@
         <v>18.541266879313003</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11">
       <c r="A49" s="1">
         <v>41116.020138888889</v>
       </c>
@@ -2225,7 +2230,7 @@
         <v>18.541266849190229</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11">
       <c r="A50" s="1">
         <v>41116.020833333336</v>
       </c>
@@ -2254,7 +2259,7 @@
         <v>18.541257265748012</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11">
       <c r="A51" s="1">
         <v>41116.021527777775</v>
       </c>
@@ -2283,7 +2288,7 @@
         <v>8.2742238345611465</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11">
       <c r="A52" s="1">
         <v>41116.022222222222</v>
       </c>
@@ -2312,7 +2317,7 @@
         <v>8.2742238194997597</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11">
       <c r="A53" s="1">
         <v>41116.022916666669</v>
       </c>
@@ -2341,7 +2346,7 @@
         <v>8.2742238194997597</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11">
       <c r="A54" s="1">
         <v>41116.024305555555</v>
       </c>
@@ -2370,7 +2375,7 @@
         <v>7.2778145413826749</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11">
       <c r="A55" s="1">
         <v>41116.025694444441</v>
       </c>
@@ -2399,7 +2404,7 @@
         <v>7.2778145413826749</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11">
       <c r="A56" s="1">
         <v>41116.026388888888</v>
       </c>
@@ -2428,7 +2433,7 @@
         <v>8.2742238194997597</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11">
       <c r="A57" s="1">
         <v>41116.027083333334</v>
       </c>
@@ -2457,7 +2462,7 @@
         <v>8.2742238194997597</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11">
       <c r="A58" s="1">
         <v>41116.027777777781</v>
       </c>
@@ -2486,7 +2491,7 @@
         <v>8.2742238194997597</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11">
       <c r="A59" s="1">
         <v>41116.02847222222</v>
       </c>
@@ -2515,7 +2520,7 @@
         <v>18.541266879313003</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11">
       <c r="A60" s="1">
         <v>41116.029166666667</v>
       </c>
@@ -2544,7 +2549,7 @@
         <v>8.2742238194997597</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11">
       <c r="A61" s="1">
         <v>41116.03125</v>
       </c>
@@ -2573,7 +2578,7 @@
         <v>6.6949524713981399</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11">
       <c r="A62" s="1">
         <v>41116.032638888886</v>
       </c>
@@ -2602,7 +2607,7 @@
         <v>7.2778145413826749</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11">
       <c r="A63" s="1">
         <v>41116.033333333333</v>
       </c>
@@ -2631,7 +2636,7 @@
         <v>8.2742238194997597</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11">
       <c r="A64" s="1">
         <v>41116.03402777778</v>
       </c>
@@ -2660,7 +2665,7 @@
         <v>8.2742238194997597</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11">
       <c r="A65" s="1">
         <v>41116.034722222219</v>
       </c>
@@ -2689,7 +2694,7 @@
         <v>8.2742238345611465</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11">
       <c r="A66" s="1">
         <v>41116.036805555559</v>
       </c>
@@ -2718,7 +2723,7 @@
         <v>6.6949430426422216</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11">
       <c r="A67" s="1">
         <v>41116.038194444445</v>
       </c>
@@ -2747,7 +2752,7 @@
         <v>7.2778145413826749</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11">
       <c r="A68" s="1">
         <v>41116.045138888891</v>
       </c>
@@ -2776,7 +2781,7 @@
         <v>4.964223824018176</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11">
       <c r="A69" s="1">
         <v>41116.081250000003</v>
       </c>
@@ -2805,7 +2810,7 @@
         <v>2.5942527567028471</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11">
       <c r="A70" s="1">
         <v>41116.083333333336</v>
       </c>
@@ -2834,7 +2839,7 @@
         <v>6.6949524713981399</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11">
       <c r="A71" s="1">
         <v>41116.084722222222</v>
       </c>
@@ -2863,7 +2868,7 @@
         <v>7.2778145413826749</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11">
       <c r="A72" s="1">
         <v>41116.086111111108</v>
       </c>
@@ -2892,7 +2897,7 @@
         <v>7.2778145413826749</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11">
       <c r="A73" s="1">
         <v>41116.086805555555</v>
       </c>
@@ -2921,7 +2926,7 @@
         <v>8.2742238194997597</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11">
       <c r="A74" s="1">
         <v>41116.087500000001</v>
       </c>
@@ -2950,7 +2955,7 @@
         <v>41.06815966029675</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11">
       <c r="A75" s="1">
         <v>41116.088194444441</v>
       </c>
@@ -2979,7 +2984,7 @@
         <v>18.541266879313003</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11">
       <c r="A76" s="1">
         <v>41116.088888888888</v>
       </c>
@@ -3008,7 +3013,7 @@
         <v>18.541266849190229</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11">
       <c r="A77" s="1">
         <v>41116.089583333334</v>
       </c>
@@ -3037,7 +3042,7 @@
         <v>8.2742334028961881</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11">
       <c r="A78" s="1">
         <v>41116.090277777781</v>
       </c>
@@ -3066,7 +3071,7 @@
         <v>18.541266849190229</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11">
       <c r="A79" s="1">
         <v>41116.09097222222</v>
       </c>
@@ -3095,7 +3100,7 @@
         <v>8.2742144108256905</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11">
       <c r="A80" s="1">
         <v>41116.093055555553</v>
       </c>
@@ -3124,7 +3129,7 @@
         <v>6.6949620547945674</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14">
       <c r="A81" s="1">
         <v>41116.09375</v>
       </c>
@@ -3153,7 +3158,7 @@
         <v>8.2742143957643037</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14">
       <c r="A82" s="1">
         <v>41116.094444444447</v>
       </c>
@@ -3182,7 +3187,7 @@
         <v>8.2742334028961881</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14">
       <c r="A83" s="1">
         <v>41116.095138888886</v>
       </c>
@@ -3211,7 +3216,7 @@
         <v>8.2742144108256905</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14">
       <c r="A84" s="1">
         <v>41116.095833333333</v>
       </c>
@@ -3240,7 +3245,7 @@
         <v>8.2742334028961881</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14">
       <c r="A85" s="1">
         <v>41116.097916666666</v>
       </c>
@@ -3269,7 +3274,7 @@
         <v>6.694943047662683</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14">
       <c r="A86" s="1">
         <v>41116.104861111111</v>
       </c>
@@ -3298,7 +3303,7 @@
         <v>4.96421440028272</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14">
       <c r="A87" s="1">
         <v>41116.10833333333</v>
       </c>
@@ -3327,7 +3332,7 @@
         <v>5.96064269456852</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14">
       <c r="A88" s="1">
         <v>41116.11041666667</v>
       </c>
@@ -3356,7 +3361,7 @@
         <v>6.6949430426422216</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14">
       <c r="A89" s="1">
         <v>41116.113194444442</v>
       </c>
@@ -3385,7 +3390,7 @@
         <v>6.281414839131326</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14">
       <c r="A90" s="1">
         <v>41116.117361111108</v>
       </c>
@@ -3414,7 +3419,7 @@
         <v>5.6985337620149066</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14">
       <c r="A91" s="1">
         <v>41116.120833333334</v>
       </c>
@@ -3443,7 +3448,7 @@
         <v>5.9606426915562434</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14">
       <c r="A92" s="1">
         <v>41116.123611111114</v>
       </c>
@@ -3472,7 +3477,7 @@
         <v>6.2813958282340945</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14">
       <c r="A93" s="1">
         <v>41116.127083333333</v>
       </c>
@@ -3501,7 +3506,7 @@
         <v>5.96064269456852</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14">
       <c r="A94" s="1">
         <v>41116.134027777778</v>
       </c>
@@ -3536,7 +3541,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14">
       <c r="A95" s="1">
         <v>41116.138888888891</v>
       </c>
@@ -3553,7 +3558,7 @@
       </c>
       <c r="E95">
         <f t="shared" si="9"/>
-        <v>4.9292975101180634</v>
+        <v>4.9292975101180643</v>
       </c>
       <c r="H95" s="2">
         <f>SUM(B14:B97)</f>
@@ -3572,7 +3577,7 @@
         <v>1.330000000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14">
       <c r="A96" s="1">
         <v>41116.145138888889</v>
       </c>
@@ -3618,7 +3623,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="97" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14" s="9" customFormat="1">
       <c r="A97" s="8">
         <v>41116.151388888888</v>
       </c>
@@ -3668,7 +3673,7 @@
         <v>12.616728048172256</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14">
       <c r="A98" s="1">
         <v>41116.603472222225</v>
       </c>
@@ -3695,7 +3700,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14">
       <c r="A99" s="1">
         <v>41116.604166666664</v>
       </c>
@@ -3715,7 +3720,7 @@
         <v>26.604379257941112</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14">
       <c r="A100" s="1">
         <v>41116.604861111111</v>
       </c>
@@ -3735,7 +3740,7 @@
         <v>26.604379217275444</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:14">
       <c r="A101" s="1">
         <v>41116.605555555558</v>
       </c>
@@ -3755,7 +3760,7 @@
         <v>16.687149434904629</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:14">
       <c r="A102" s="1">
         <v>41116.606249999997</v>
       </c>
@@ -3775,7 +3780,7 @@
         <v>16.687149462015142</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:14">
       <c r="A103" s="1">
         <v>41116.606944444444</v>
       </c>
@@ -3795,7 +3800,7 @@
         <v>36.961362586402586</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:14">
       <c r="A104" s="1">
         <v>41116.607638888891</v>
       </c>
@@ -3815,7 +3820,7 @@
         <v>16.687149434904629</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:14">
       <c r="A105" s="1">
         <v>41116.60833333333</v>
       </c>
@@ -3835,7 +3840,7 @@
         <v>16.687149462015142</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:14">
       <c r="A106" s="1">
         <v>41116.609027777777</v>
       </c>
@@ -3855,7 +3860,7 @@
         <v>16.687149434904629</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:14">
       <c r="A107" s="1">
         <v>41116.609722222223</v>
       </c>
@@ -3875,7 +3880,7 @@
         <v>16.687149434904629</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:14">
       <c r="A108" s="1">
         <v>41116.61041666667</v>
       </c>
@@ -3895,7 +3900,7 @@
         <v>16.687149434904629</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:14">
       <c r="A109" s="1">
         <v>41116.611111111109</v>
       </c>
@@ -3915,7 +3920,7 @@
         <v>16.687149462015142</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:14">
       <c r="A110" s="1">
         <v>41116.611805555556</v>
       </c>
@@ -3935,7 +3940,7 @@
         <v>16.687149434904629</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:14">
       <c r="A111" s="1">
         <v>41116.613888888889</v>
       </c>
@@ -3955,7 +3960,7 @@
         <v>6.0254112512153473</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:14">
       <c r="A112" s="1">
         <v>41116.614583333336</v>
       </c>
@@ -3975,7 +3980,7 @@
         <v>7.4468621902770078</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5">
       <c r="A113" s="1">
         <v>41116.615277777775</v>
       </c>
@@ -3995,7 +4000,7 @@
         <v>7.4467466341424196</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5">
       <c r="A114" s="1">
         <v>41116.615972222222</v>
       </c>
@@ -4015,7 +4020,7 @@
         <v>7.4468621902770078</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5">
       <c r="A115" s="1">
         <v>41116.617361111108</v>
       </c>
@@ -4035,7 +4040,7 @@
         <v>6.5499838501738381</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5">
       <c r="A116" s="1">
         <v>41116.618750000001</v>
       </c>
@@ -4055,7 +4060,7 @@
         <v>6.5500875558155087</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5">
       <c r="A117" s="1">
         <v>41117.168055555558</v>
       </c>
@@ -4075,7 +4080,7 @@
         <v>-1.1868673989373857</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5">
       <c r="A118" s="1">
         <v>41117.17291666667</v>
       </c>
@@ -4092,10 +4097,10 @@
       </c>
       <c r="E118">
         <f t="shared" si="9"/>
-        <v>4.9292975101180634</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4.9292975101180643</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
       <c r="A119" s="1">
         <v>41117.176388888889</v>
       </c>
@@ -4115,7 +4120,7 @@
         <v>5.3645279392003227</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5">
       <c r="A120" s="1">
         <v>41117.3125</v>
       </c>
@@ -4135,7 +4140,7 @@
         <v>0.61818355750896425</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5">
       <c r="A121" s="1">
         <v>41117.46875</v>
       </c>
@@ -4155,7 +4160,7 @@
         <v>2.6728382147073795</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5">
       <c r="A122" s="1">
         <v>41117.469444444447</v>
       </c>
@@ -4175,7 +4180,7 @@
         <v>16.687020937184215</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5">
       <c r="A123" s="1">
         <v>41117.470138888886</v>
       </c>
@@ -4195,7 +4200,7 @@
         <v>47.645259516479072</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5">
       <c r="A124" s="1">
         <v>41117.470833333333</v>
       </c>
@@ -4215,7 +4220,7 @@
         <v>69.80993556</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5">
       <c r="A125" s="1">
         <v>41117.47152777778</v>
       </c>
@@ -4235,7 +4240,7 @@
         <v>36.961362586402586</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5">
       <c r="A126" s="1">
         <v>41117.472222222219</v>
       </c>
@@ -4255,7 +4260,7 @@
         <v>26.604514750060822</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5">
       <c r="A127" s="1">
         <v>41117.472916666666</v>
       </c>
@@ -4275,7 +4280,7 @@
         <v>26.604379217275444</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5">
       <c r="A128" s="1">
         <v>41117.473611111112</v>
       </c>
@@ -4295,7 +4300,7 @@
         <v>26.604379217275444</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8">
       <c r="A129" s="1">
         <v>41117.474305555559</v>
       </c>
@@ -4315,7 +4320,7 @@
         <v>16.687149434904629</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8">
       <c r="A130" s="1">
         <v>41117.474999999999</v>
       </c>
@@ -4335,7 +4340,7 @@
         <v>16.687149462015142</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8">
       <c r="A131" s="1">
         <v>41117.475694444445</v>
       </c>
@@ -4355,7 +4360,7 @@
         <v>7.4468621902770078</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8">
       <c r="A132" s="1">
         <v>41117.477083333331</v>
       </c>
@@ -4375,7 +4380,7 @@
         <v>6.5499838501738381</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8">
       <c r="A133" s="1">
         <v>41117.632638888892</v>
       </c>
@@ -4395,7 +4400,7 @@
         <v>0.44542433811313981</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8">
       <c r="A134" s="1">
         <v>41120.961111111108</v>
       </c>
@@ -4415,7 +4420,7 @@
         <v>-6.28915290792495</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8">
       <c r="A135" s="1">
         <v>41120.961805555555</v>
       </c>
@@ -4435,7 +4440,7 @@
         <v>26.604435672315926</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8">
       <c r="A136" s="1">
         <v>41120.962500000001</v>
       </c>
@@ -4455,7 +4460,7 @@
         <v>7.4468010062954333</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8">
       <c r="A137" s="1">
         <v>41120.967361111114</v>
       </c>
@@ -4475,7 +4480,7 @@
         <v>11.652044612097782</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8">
       <c r="A138" s="1">
         <v>41120.968055555553</v>
       </c>
@@ -4495,7 +4500,7 @@
         <v>7.4468039333721814</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8">
       <c r="A139" s="1">
         <v>41121.262499999997</v>
       </c>
@@ -4515,7 +4520,7 @@
         <v>-0.38012228233699646</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8">
       <c r="A140" s="1">
         <v>41124.101388888892</v>
       </c>
@@ -4535,7 +4540,7 @@
         <v>-3.3118899222404137</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8">
       <c r="A141" s="1">
         <v>41124.103472222225</v>
       </c>
@@ -4555,7 +4560,7 @@
         <v>6.0254567930039755</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8">
       <c r="A142" s="1">
         <v>41124.104861111111</v>
       </c>
@@ -4575,7 +4580,7 @@
         <v>6.5500335275229471</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8">
       <c r="A143" s="1">
         <v>41124.106249999997</v>
       </c>
@@ -4595,7 +4600,7 @@
         <v>6.5500309129243313</v>
       </c>
     </row>
-    <row r="144" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" s="9" customFormat="1">
       <c r="A144" s="8">
         <v>41125.69027777778</v>
       </c>
@@ -4616,7 +4621,7 @@
       <c r="G144" s="14"/>
       <c r="H144" s="14"/>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:15">
       <c r="A145" s="1">
         <v>41125.691666666666</v>
       </c>
@@ -4636,7 +4641,7 @@
         <v>6.5500326559900586</v>
       </c>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:15">
       <c r="A146" s="1">
         <v>41125.694444444445</v>
       </c>
@@ -4656,7 +4661,7 @@
         <v>5.6532642955182464</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:15">
       <c r="A147" s="1">
         <v>41125.700694444444</v>
       </c>
@@ -4676,7 +4681,7 @@
         <v>4.6041099539160797</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:15">
       <c r="A148" s="1">
         <v>41125.706250000003</v>
       </c>
@@ -4696,7 +4701,7 @@
         <v>4.7564979551883848</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:15">
       <c r="A149" s="1">
         <v>41125.711111111108</v>
       </c>
@@ -4716,7 +4721,7 @@
         <v>4.9292560252414983</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:15">
       <c r="A150" s="1">
         <v>41125.716666666667</v>
       </c>
@@ -4736,7 +4741,7 @@
         <v>4.7564932494312853</v>
       </c>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:15">
       <c r="A151" s="1">
         <v>41125.724999999999</v>
       </c>
@@ -4756,7 +4761,7 @@
         <v>4.2319219207324954</v>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:15">
       <c r="A152" s="1">
         <v>41125.730555555558</v>
       </c>
@@ -4793,7 +4798,7 @@
       </c>
       <c r="O152" s="2"/>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:15">
       <c r="A153" s="1">
         <v>41125.738194444442</v>
       </c>
@@ -4837,7 +4842,7 @@
       </c>
       <c r="O153" s="12"/>
     </row>
-    <row r="154" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:15" s="9" customFormat="1">
       <c r="A154" s="8">
         <v>41125.75</v>
       </c>
@@ -4884,7 +4889,7 @@
       </c>
       <c r="O154" s="14"/>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:15">
       <c r="A155" s="1">
         <v>41128.633333333331</v>
       </c>
@@ -4904,7 +4909,7 @@
         <v>-3.3319876197660609</v>
       </c>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:15">
       <c r="A156" s="1">
         <v>41128.647222222222</v>
       </c>
@@ -4924,7 +4929,7 @@
         <v>3.5710326532790093</v>
       </c>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:15">
       <c r="A157" s="1">
         <v>41128.649305555555</v>
       </c>
@@ -4944,7 +4949,7 @@
         <v>6.025457606250658</v>
       </c>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:15">
       <c r="A158" s="1">
         <v>41128.65</v>
       </c>
@@ -4964,7 +4969,7 @@
         <v>16.687138726756867</v>
       </c>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:15">
       <c r="A159" s="1">
         <v>41128.650694444441</v>
       </c>
@@ -4984,7 +4989,7 @@
         <v>7.4468010198506818</v>
       </c>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:15">
       <c r="A160" s="1">
         <v>41128.770138888889</v>
       </c>
@@ -5009,27 +5014,32 @@
     <sortCondition ref="A5:A1578"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U79"/>
+  <dimension ref="A1:V79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" style="18" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" customWidth="1"/>
-    <col min="12" max="12" width="6" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" customWidth="1"/>
+    <col min="11" max="11" width="6" style="18" customWidth="1"/>
+    <col min="12" max="12" width="10.1640625" customWidth="1"/>
+    <col min="13" max="13" width="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -5057,44 +5067,44 @@
       <c r="I1" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="K1" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>25</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>26</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>27</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>28</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>29</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>30</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>31</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>32</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>33</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>34</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22">
       <c r="A2" s="17">
         <v>41725.620833333334</v>
       </c>
@@ -5122,44 +5132,48 @@
       <c r="I2">
         <v>0.48299999999999998</v>
       </c>
-      <c r="J2" s="18">
+      <c r="J2">
+        <f>I2/G2/0.01</f>
+        <v>298.14814814814815</v>
+      </c>
+      <c r="K2" s="18">
         <v>1</v>
       </c>
-      <c r="K2" s="17">
+      <c r="L2" s="17">
         <v>41725.614583333336</v>
       </c>
-      <c r="L2" s="17">
+      <c r="M2" s="17">
         <v>41726.236111111109</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>0.36</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>14.91666667</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>2.4134078E-2</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>0.432</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>0.32400000000000001</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>0.28799999999999998</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>0.16200000000000001</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>0.51545491200000004</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22">
       <c r="A3" s="17">
         <v>41733.06527777778</v>
       </c>
@@ -5187,44 +5201,44 @@
       <c r="I3">
         <v>-9</v>
       </c>
-      <c r="J3" s="18">
+      <c r="K3" s="18">
         <v>2</v>
       </c>
-      <c r="K3" s="17">
+      <c r="L3" s="17">
         <v>41733.0625</v>
       </c>
-      <c r="L3" s="17">
+      <c r="M3" s="17">
         <v>41733.079861111109</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>0.41666667000000002</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>0.108</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>0.216</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>0.16200000000000001</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>0.14399999999999999</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>0.09</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>1.8148167E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22">
       <c r="A4" s="17">
         <v>41733.330555555556</v>
       </c>
@@ -5252,44 +5266,44 @@
       <c r="I4">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="J4" s="18">
+      <c r="K4" s="18">
         <v>3</v>
       </c>
-      <c r="K4" s="17">
+      <c r="L4" s="17">
         <v>41733.322916666664</v>
       </c>
-      <c r="L4" s="17">
+      <c r="M4" s="17">
         <v>41733.39166666667</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>1.65</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>2.1818181999999998E-2</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>0.108</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>5.3999999999999999E-2</v>
-      </c>
-      <c r="R4">
-        <v>3.5999999999999997E-2</v>
       </c>
       <c r="S4">
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="T4">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="U4">
         <v>2.7E-2</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>1.7363198999999999E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22">
       <c r="A5" s="17">
         <v>41733.618750000001</v>
       </c>
@@ -5317,44 +5331,44 @@
       <c r="I5">
         <v>-9</v>
       </c>
-      <c r="J5" s="18">
+      <c r="K5" s="18">
         <v>4</v>
       </c>
-      <c r="K5" s="17">
+      <c r="L5" s="17">
         <v>41733.614583333336</v>
       </c>
-      <c r="L5" s="17">
+      <c r="M5" s="17">
         <v>41733.619444444441</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>0.11666667</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>7.7142856999999995E-2</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>0.108</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>2.080574E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22">
       <c r="A6" s="17">
         <v>41734.393055555556</v>
       </c>
@@ -5382,44 +5396,44 @@
       <c r="I6">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="J6" s="18">
+      <c r="K6" s="18">
         <v>5</v>
       </c>
-      <c r="K6" s="17">
+      <c r="L6" s="17">
         <v>41734.385416666664</v>
       </c>
-      <c r="L6" s="17">
+      <c r="M6" s="17">
         <v>41734.42083333333</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>2.7E-2</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>0.85</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>3.1764705999999997E-2</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>0.108</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>5.3999999999999999E-2</v>
-      </c>
-      <c r="R6">
-        <v>3.5999999999999997E-2</v>
       </c>
       <c r="S6">
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="T6">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="U6">
         <v>2.7E-2</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>1.1756373000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22">
       <c r="A7" s="17">
         <v>41737.901388888888</v>
       </c>
@@ -5447,44 +5461,44 @@
       <c r="I7">
         <v>-9</v>
       </c>
-      <c r="J7" s="18">
+      <c r="K7" s="18">
         <v>6</v>
       </c>
-      <c r="K7" s="17">
+      <c r="L7" s="17">
         <v>41737.895833333336</v>
       </c>
-      <c r="L7" s="17">
+      <c r="M7" s="17">
         <v>41737.902083333334</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>0.15</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>0.06</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>0.108</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>2.1391000000000001E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22">
       <c r="A8" s="17">
         <v>41741.440972222219</v>
       </c>
@@ -5512,44 +5526,44 @@
       <c r="I8">
         <v>2.4830000000000001</v>
       </c>
-      <c r="J8" s="18">
+      <c r="K8" s="18">
         <v>7</v>
       </c>
-      <c r="K8" s="17">
+      <c r="L8" s="17">
         <v>41741.4375</v>
       </c>
-      <c r="L8" s="17">
+      <c r="M8" s="17">
         <v>41741.579861111109</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>0.48599999999999999</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>3.4166666700000001</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>0.14224390200000001</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>1.62</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>1.1879999999999999</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>1.008</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>0.57599999999999996</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>0.36</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>0.77690294400000004</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22">
       <c r="A9" s="17">
         <v>41741.78125</v>
       </c>
@@ -5577,44 +5591,44 @@
       <c r="I9">
         <v>1.627</v>
       </c>
-      <c r="J9" s="18">
+      <c r="K9" s="18">
         <v>8</v>
       </c>
-      <c r="K9" s="17">
+      <c r="L9" s="17">
         <v>41741.78125</v>
       </c>
-      <c r="L9" s="17">
+      <c r="M9" s="17">
         <v>41741.813888888886</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>0.32400000000000001</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>0.78333333000000005</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>0.41361702099999997</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>1.4039999999999999</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>1.026</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>0.75600000000000001</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>0.55800000000000005</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>0.32400000000000001</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>0.40081754400000003</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22">
       <c r="A10" s="17">
         <v>41741.944444444445</v>
       </c>
@@ -5642,44 +5656,44 @@
       <c r="I10">
         <v>7.3550000000000004</v>
       </c>
-      <c r="J10" s="18">
+      <c r="K10" s="18">
         <v>9</v>
       </c>
-      <c r="K10" s="17">
+      <c r="L10" s="17">
         <v>41741.9375</v>
       </c>
-      <c r="L10" s="17">
+      <c r="M10" s="17">
         <v>41742.253472222219</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>1.296</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>7.5833333300000003</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>0.170901099</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>1.62</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>1.08</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>0.93600000000000005</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>0.66600000000000004</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>0.45</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>5.3138667230000003</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22">
       <c r="A11" s="17">
         <v>41742.681250000001</v>
       </c>
@@ -5707,44 +5721,44 @@
       <c r="I11">
         <v>5.0940000000000003</v>
       </c>
-      <c r="J11" s="18">
+      <c r="K11" s="18">
         <v>10</v>
       </c>
-      <c r="K11" s="17">
+      <c r="L11" s="17">
         <v>41742.677083333336</v>
       </c>
-      <c r="L11" s="17">
+      <c r="M11" s="17">
         <v>41743.179861111108</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>1.8</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>12.06666667</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>0.14917127099999999</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>0.54</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>0.432</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>0.39600000000000002</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>0.34200000000000003</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>0.30599999999999999</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>4.9280843120000002</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22">
       <c r="A12" s="17">
         <v>41743.293749999997</v>
       </c>
@@ -5772,44 +5786,44 @@
       <c r="I12">
         <v>-9</v>
       </c>
-      <c r="J12" s="18">
+      <c r="K12" s="18">
         <v>11</v>
       </c>
-      <c r="K12" s="17">
+      <c r="L12" s="17">
         <v>41743.293749999997</v>
       </c>
-      <c r="L12" s="17">
+      <c r="M12" s="17">
         <v>41743.294444444444</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>1.6666670000000001E-2</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>0.54</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>0.108</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>1.627416E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22">
       <c r="A13" s="17">
         <v>41743.396527777775</v>
       </c>
@@ -5837,44 +5851,44 @@
       <c r="I13">
         <v>0.188</v>
       </c>
-      <c r="J13" s="18">
+      <c r="K13" s="18">
         <v>12</v>
       </c>
-      <c r="K13" s="17">
+      <c r="L13" s="17">
         <v>41743.396527777775</v>
       </c>
-      <c r="L13" s="17">
+      <c r="M13" s="17">
         <v>41743.48333333333</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>0.126</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>2.0833333299999999</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>6.0479999999999999E-2</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>0.32400000000000001</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>0.27</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>0.28799999999999998</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>0.18</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>0.108</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>0.211564056</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22">
       <c r="A14" s="17">
         <v>41750.636805555558</v>
       </c>
@@ -5902,44 +5916,44 @@
       <c r="I14">
         <v>1.6E-2</v>
       </c>
-      <c r="J14" s="18">
+      <c r="K14" s="18">
         <v>13</v>
       </c>
-      <c r="K14" s="17">
+      <c r="L14" s="17">
         <v>41750.635416666664</v>
       </c>
-      <c r="L14" s="17">
+      <c r="M14" s="17">
         <v>41750.692361111112</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>1.3666666700000001</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>2.6341462999999999E-2</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>0.216</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>0.16200000000000001</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>0.108</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>2.7E-2</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>1.1891496E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22">
       <c r="A15" s="17">
         <v>41753.170138888891</v>
       </c>
@@ -5967,26 +5981,23 @@
       <c r="I15">
         <v>0.121</v>
       </c>
-      <c r="J15" s="18">
+      <c r="K15" s="18">
         <v>14</v>
       </c>
-      <c r="K15" s="17">
+      <c r="L15" s="17">
         <v>41753.166666666664</v>
       </c>
-      <c r="L15" s="17">
+      <c r="M15" s="17">
         <v>41753.319444444445</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>0.16200000000000001</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>3.6666666700000001</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>4.4181817999999998E-2</v>
-      </c>
-      <c r="P15">
-        <v>0.108</v>
       </c>
       <c r="Q15">
         <v>0.108</v>
@@ -5995,16 +6006,19 @@
         <v>0.108</v>
       </c>
       <c r="S15">
+        <v>0.108</v>
+      </c>
+      <c r="T15">
         <v>0.09</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>8.1000000000000003E-2</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>9.9891266000000006E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22">
       <c r="A16" s="17">
         <v>41753.429166666669</v>
       </c>
@@ -6032,44 +6046,44 @@
       <c r="I16">
         <v>-9</v>
       </c>
-      <c r="J16" s="18">
+      <c r="K16" s="18">
         <v>15</v>
       </c>
-      <c r="K16" s="17">
+      <c r="L16" s="17">
         <v>41753.427083333336</v>
       </c>
-      <c r="L16" s="17">
+      <c r="M16" s="17">
         <v>41753.429861111108</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>6.6666669999999997E-2</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>0.13500000000000001</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>0.108</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>1.950252E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22">
       <c r="A17" s="17">
         <v>41753.568749999999</v>
       </c>
@@ -6097,44 +6111,44 @@
       <c r="I17">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="J17" s="18">
+      <c r="K17" s="18">
         <v>16</v>
       </c>
-      <c r="K17" s="17">
+      <c r="L17" s="17">
         <v>41753.5625</v>
       </c>
-      <c r="L17" s="17">
+      <c r="M17" s="17">
         <v>41753.634027777778</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>2.7E-2</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>1.71666667</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>1.5728155000000001E-2</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>0.108</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>5.3999999999999999E-2</v>
-      </c>
-      <c r="R17">
-        <v>3.5999999999999997E-2</v>
       </c>
       <c r="S17">
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="T17">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="U17">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>1.2677246E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22">
       <c r="A18" s="17">
         <v>41753.788888888892</v>
       </c>
@@ -6162,44 +6176,44 @@
       <c r="I18">
         <v>-9</v>
       </c>
-      <c r="J18" s="18">
+      <c r="K18" s="18">
         <v>17</v>
       </c>
-      <c r="K18" s="17">
+      <c r="L18" s="17">
         <v>41753.78125</v>
       </c>
-      <c r="L18" s="17">
+      <c r="M18" s="17">
         <v>41753.789583333331</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>0.2</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>0.108</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>2.206094E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22">
       <c r="A19" s="17">
         <v>41753.882638888892</v>
       </c>
@@ -6227,32 +6241,29 @@
       <c r="I19">
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="J19" s="18">
+      <c r="K19" s="18">
         <v>18</v>
       </c>
-      <c r="K19" s="17">
+      <c r="L19" s="17">
         <v>41753.875</v>
       </c>
-      <c r="L19" s="17">
+      <c r="M19" s="17">
         <v>41754.017361111109</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>3.4166666700000001</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>2.8975609999999999E-2</v>
-      </c>
-      <c r="P19">
-        <v>0.108</v>
       </c>
       <c r="Q19">
         <v>0.108</v>
       </c>
       <c r="R19">
-        <v>7.1999999999999995E-2</v>
+        <v>0.108</v>
       </c>
       <c r="S19">
         <v>7.1999999999999995E-2</v>
@@ -6261,10 +6272,13 @@
         <v>7.1999999999999995E-2</v>
       </c>
       <c r="U19">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="V19">
         <v>6.2835370000000002E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22">
       <c r="A20" s="17">
         <v>41756.149305555555</v>
       </c>
@@ -6292,44 +6306,44 @@
       <c r="I20">
         <v>-9</v>
       </c>
-      <c r="J20" s="18">
+      <c r="K20" s="18">
         <v>19</v>
       </c>
-      <c r="K20" s="17">
+      <c r="L20" s="17">
         <v>41756.145833333336</v>
       </c>
-      <c r="L20" s="17">
+      <c r="M20" s="17">
         <v>41756.15</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>0.1</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>0.09</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>0.108</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>2.044676E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22">
       <c r="A21" s="17">
         <v>41756.386805555558</v>
       </c>
@@ -6357,44 +6371,44 @@
       <c r="I21">
         <v>-9</v>
       </c>
-      <c r="J21" s="18">
+      <c r="K21" s="18">
         <v>20</v>
       </c>
-      <c r="K21" s="17">
+      <c r="L21" s="17">
         <v>41756.385416666664</v>
       </c>
-      <c r="L21" s="17">
+      <c r="M21" s="17">
         <v>41756.387499999997</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>0.05</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>0.18</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>0.108</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>1.8832580000000001E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22">
       <c r="A22" s="17">
         <v>41756.832638888889</v>
       </c>
@@ -6422,44 +6436,44 @@
       <c r="I22">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="J22" s="18">
+      <c r="K22" s="18">
         <v>21</v>
       </c>
-      <c r="K22" s="17">
+      <c r="L22" s="17">
         <v>41756.822916666664</v>
       </c>
-      <c r="L22" s="17">
+      <c r="M22" s="17">
         <v>41756.864583333336</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>2.7E-2</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>1</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>2.7E-2</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>0.108</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>5.3999999999999999E-2</v>
-      </c>
-      <c r="R22">
-        <v>3.5999999999999997E-2</v>
       </c>
       <c r="S22">
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="T22">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="U22">
         <v>2.7E-2</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>1.3193386E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22">
       <c r="A23" s="17">
         <v>41757.013888888891</v>
       </c>
@@ -6487,26 +6501,23 @@
       <c r="I23">
         <v>3.2000000000000001E-2</v>
       </c>
-      <c r="J23" s="18">
+      <c r="K23" s="18">
         <v>22</v>
       </c>
-      <c r="K23" s="17">
+      <c r="L23" s="17">
         <v>41757.010416666664</v>
       </c>
-      <c r="L23" s="17">
+      <c r="M23" s="17">
         <v>41757.072222222225</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>1.48333333</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>3.6404494000000003E-2</v>
-      </c>
-      <c r="P23">
-        <v>0.108</v>
       </c>
       <c r="Q23">
         <v>0.108</v>
@@ -6515,16 +6526,19 @@
         <v>0.108</v>
       </c>
       <c r="S23">
+        <v>0.108</v>
+      </c>
+      <c r="T23">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>3.1521615000000003E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22">
       <c r="A24" s="17">
         <v>41757.536111111112</v>
       </c>
@@ -6552,44 +6566,44 @@
       <c r="I24">
         <v>-9</v>
       </c>
-      <c r="J24" s="18">
+      <c r="K24" s="18">
         <v>23</v>
       </c>
-      <c r="K24" s="17">
+      <c r="L24" s="17">
         <v>41757.53125</v>
       </c>
-      <c r="L24" s="17">
+      <c r="M24" s="17">
         <v>41757.536805555559</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>0.13333333</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>6.7500000000000004E-2</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>0.108</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>2.1116709999999999E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22">
       <c r="A25" s="17">
         <v>41757.625</v>
       </c>
@@ -6617,44 +6631,44 @@
       <c r="I25">
         <v>-9</v>
       </c>
-      <c r="J25" s="18">
+      <c r="K25" s="18">
         <v>24</v>
       </c>
-      <c r="K25" s="17">
+      <c r="L25" s="17">
         <v>41757.625</v>
       </c>
-      <c r="L25" s="17">
+      <c r="M25" s="17">
         <v>41757.625694444447</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>1.6666670000000001E-2</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>0.54</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>0.108</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>1.627416E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22">
       <c r="A26" s="17">
         <v>41757.859722222223</v>
       </c>
@@ -6682,44 +6696,44 @@
       <c r="I26">
         <v>0.61899999999999999</v>
       </c>
-      <c r="J26" s="18">
+      <c r="K26" s="18">
         <v>25</v>
       </c>
-      <c r="K26" s="17">
+      <c r="L26" s="17">
         <v>41757.854166666664</v>
       </c>
-      <c r="L26" s="17">
+      <c r="M26" s="17">
         <v>41758.304861111108</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>0.378</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>10.81666667</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>3.4946071000000002E-2</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>0.32400000000000001</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>0.27</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>0.252</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>0.19800000000000001</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>0.13500000000000001</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>0.54350541900000005</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22">
       <c r="A27" s="17">
         <v>41758.531944444447</v>
       </c>
@@ -6747,44 +6761,44 @@
       <c r="I27">
         <v>-9</v>
       </c>
-      <c r="J27" s="18">
+      <c r="K27" s="18">
         <v>26</v>
       </c>
-      <c r="K27" s="17">
+      <c r="L27" s="17">
         <v>41758.53125</v>
       </c>
-      <c r="L27" s="17">
+      <c r="M27" s="17">
         <v>41758.532638888886</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>3.3333330000000001E-2</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>0.27</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>0.108</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>1.788834E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22">
       <c r="A28" s="17">
         <v>41758.634722222225</v>
       </c>
@@ -6812,44 +6826,44 @@
       <c r="I28">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="J28" s="18">
+      <c r="K28" s="18">
         <v>27</v>
       </c>
-      <c r="K28" s="17">
+      <c r="L28" s="17">
         <v>41758.625</v>
       </c>
-      <c r="L28" s="17">
+      <c r="M28" s="17">
         <v>41758.756944444445</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>2.7E-2</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>3.1666666700000001</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>8.5263160000000008E-3</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>0.108</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="S28">
-        <v>1.7999999999999999E-2</v>
       </c>
       <c r="T28">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="U28">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="V28">
         <v>6.64643E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22">
       <c r="A29" s="17">
         <v>41758.979861111111</v>
       </c>
@@ -6877,44 +6891,44 @@
       <c r="I29">
         <v>-9</v>
       </c>
-      <c r="J29" s="18">
+      <c r="K29" s="18">
         <v>28</v>
       </c>
-      <c r="K29" s="17">
+      <c r="L29" s="17">
         <v>41758.979166666664</v>
       </c>
-      <c r="L29" s="17">
+      <c r="M29" s="17">
         <v>41758.980555555558</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>3.3333330000000001E-2</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>0.27</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>0.108</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>1.788834E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22">
       <c r="A30" s="17">
         <v>41760.864583333336</v>
       </c>
@@ -6942,44 +6956,44 @@
       <c r="I30">
         <v>-9</v>
       </c>
-      <c r="J30" s="18">
+      <c r="K30" s="18">
         <v>29</v>
       </c>
-      <c r="K30" s="17">
+      <c r="L30" s="17">
         <v>41760.864583333336</v>
       </c>
-      <c r="L30" s="17">
+      <c r="M30" s="17">
         <v>41760.865277777775</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>1.6666670000000001E-2</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>0.54</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>0.108</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>1.627416E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22">
       <c r="A31" s="17">
         <v>41761.881249999999</v>
       </c>
@@ -7007,44 +7021,44 @@
       <c r="I31">
         <v>0.14099999999999999</v>
       </c>
-      <c r="J31" s="18">
+      <c r="K31" s="18">
         <v>30</v>
       </c>
-      <c r="K31" s="17">
+      <c r="L31" s="17">
         <v>41761.875</v>
       </c>
-      <c r="L31" s="17">
+      <c r="M31" s="17">
         <v>41761.992361111108</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>0.13500000000000001</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>2.81666667</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>4.7928994000000003E-2</v>
-      </c>
-      <c r="P31">
-        <v>0.216</v>
       </c>
       <c r="Q31">
         <v>0.216</v>
       </c>
       <c r="R31">
+        <v>0.216</v>
+      </c>
+      <c r="S31">
         <v>0.18</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>0.126</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>0.11660835</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22">
       <c r="A32" s="17">
         <v>41762.347222222219</v>
       </c>
@@ -7072,44 +7086,44 @@
       <c r="I32">
         <v>-9</v>
       </c>
-      <c r="J32" s="18">
+      <c r="K32" s="18">
         <v>31</v>
       </c>
-      <c r="K32" s="17">
+      <c r="L32" s="17">
         <v>41762.34375</v>
       </c>
-      <c r="L32" s="17">
+      <c r="M32" s="17">
         <v>41762.347916666666</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>0.1</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>0.09</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>0.108</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>2.044676E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22">
       <c r="A33" s="17">
         <v>41766.027777777781</v>
       </c>
@@ -7137,44 +7151,44 @@
       <c r="I33">
         <v>0.96</v>
       </c>
-      <c r="J33" s="18">
+      <c r="K33" s="18">
         <v>32</v>
       </c>
-      <c r="K33" s="17">
+      <c r="L33" s="17">
         <v>41766.020833333336</v>
       </c>
-      <c r="L33" s="17">
+      <c r="M33" s="17">
         <v>41766.11041666667</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>0.252</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>2.15</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>0.117209302</v>
       </c>
-      <c r="P33">
+      <c r="Q33">
         <v>1.944</v>
       </c>
-      <c r="Q33">
+      <c r="R33">
         <v>1.1879999999999999</v>
       </c>
-      <c r="R33">
+      <c r="S33">
         <v>0.79200000000000004</v>
       </c>
-      <c r="S33">
+      <c r="T33">
         <v>0.39600000000000002</v>
       </c>
-      <c r="T33">
+      <c r="U33">
         <v>0.19800000000000001</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <v>0.31016467800000003</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22">
       <c r="A34" s="17">
         <v>41766.477083333331</v>
       </c>
@@ -7202,44 +7216,44 @@
       <c r="I34">
         <v>2.069</v>
       </c>
-      <c r="J34" s="18">
+      <c r="K34" s="18">
         <v>33</v>
       </c>
-      <c r="K34" s="17">
+      <c r="L34" s="17">
         <v>41766.46875</v>
       </c>
-      <c r="L34" s="17">
+      <c r="M34" s="17">
         <v>41766.532638888886</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>0.441</v>
       </c>
-      <c r="N34">
+      <c r="O34">
         <v>1.53333333</v>
       </c>
-      <c r="O34">
+      <c r="P34">
         <v>0.287608696</v>
       </c>
-      <c r="P34">
+      <c r="Q34">
         <v>1.296</v>
       </c>
-      <c r="Q34">
+      <c r="R34">
         <v>0.97199999999999998</v>
       </c>
-      <c r="R34">
+      <c r="S34">
         <v>0.75600000000000001</v>
       </c>
-      <c r="S34">
+      <c r="T34">
         <v>0.52200000000000002</v>
       </c>
-      <c r="T34">
+      <c r="U34">
         <v>0.39600000000000002</v>
       </c>
-      <c r="U34">
+      <c r="V34">
         <v>0.663486558</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22">
       <c r="A35" s="17">
         <v>41768.254166666666</v>
       </c>
@@ -7267,44 +7281,44 @@
       <c r="I35">
         <v>1.6E-2</v>
       </c>
-      <c r="J35" s="18">
+      <c r="K35" s="18">
         <v>34</v>
       </c>
-      <c r="K35" s="17">
+      <c r="L35" s="17">
         <v>41768.25</v>
       </c>
-      <c r="L35" s="17">
+      <c r="M35" s="17">
         <v>41768.303472222222</v>
       </c>
-      <c r="M35">
+      <c r="N35">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="N35">
+      <c r="O35">
         <v>1.28333333</v>
       </c>
-      <c r="O35">
+      <c r="P35">
         <v>2.8051948E-2</v>
       </c>
-      <c r="P35">
+      <c r="Q35">
         <v>0.216</v>
       </c>
-      <c r="Q35">
+      <c r="R35">
         <v>0.108</v>
       </c>
-      <c r="R35">
+      <c r="S35">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="S35">
+      <c r="T35">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="T35">
+      <c r="U35">
         <v>2.7E-2</v>
       </c>
-      <c r="U35">
+      <c r="V35">
         <v>1.8334203E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22">
       <c r="A36" s="17">
         <v>41770.71875</v>
       </c>
@@ -7332,44 +7346,44 @@
       <c r="I36">
         <v>0.35399999999999998</v>
       </c>
-      <c r="J36" s="18">
+      <c r="K36" s="18">
         <v>35</v>
       </c>
-      <c r="K36" s="17">
+      <c r="L36" s="17">
         <v>41770.71875</v>
       </c>
-      <c r="L36" s="17">
+      <c r="M36" s="17">
         <v>41770.770833333336</v>
       </c>
-      <c r="M36">
+      <c r="N36">
         <v>0.19800000000000001</v>
       </c>
-      <c r="N36">
+      <c r="O36">
         <v>1.25</v>
       </c>
-      <c r="O36">
+      <c r="P36">
         <v>0.15840000000000001</v>
       </c>
-      <c r="P36">
+      <c r="Q36">
         <v>0.32400000000000001</v>
       </c>
-      <c r="Q36">
+      <c r="R36">
         <v>0.27</v>
       </c>
-      <c r="R36">
+      <c r="S36">
         <v>0.252</v>
       </c>
-      <c r="S36">
+      <c r="T36">
         <v>0.216</v>
       </c>
-      <c r="T36">
+      <c r="U36">
         <v>0.17100000000000001</v>
       </c>
-      <c r="U36">
+      <c r="V36">
         <v>6.3594093000000004E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22">
       <c r="A37" s="17">
         <v>41771.15</v>
       </c>
@@ -7397,44 +7411,44 @@
       <c r="I37">
         <v>1.377</v>
       </c>
-      <c r="J37" s="18">
+      <c r="K37" s="18">
         <v>36</v>
       </c>
-      <c r="K37" s="17">
+      <c r="L37" s="17">
         <v>41771.145833333336</v>
       </c>
-      <c r="L37" s="17">
+      <c r="M37" s="17">
         <v>41771.244444444441</v>
       </c>
-      <c r="M37">
+      <c r="N37">
         <v>0.29199999999999998</v>
       </c>
-      <c r="N37">
+      <c r="O37">
         <v>2.3666666699999999</v>
       </c>
-      <c r="O37">
+      <c r="P37">
         <v>0.12338028199999999</v>
       </c>
-      <c r="P37">
+      <c r="Q37">
         <v>2.1</v>
       </c>
-      <c r="Q37">
+      <c r="R37">
         <v>1.32</v>
       </c>
-      <c r="R37">
+      <c r="S37">
         <v>0.95199999999999996</v>
       </c>
-      <c r="S37">
+      <c r="T37">
         <v>0.49399999999999999</v>
       </c>
-      <c r="T37">
+      <c r="U37">
         <v>0.247</v>
       </c>
-      <c r="U37">
+      <c r="V37">
         <v>0.39849774900000001</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22">
       <c r="A38" s="17">
         <v>41771.476388888892</v>
       </c>
@@ -7462,44 +7476,44 @@
       <c r="I38">
         <v>4.2519999999999998</v>
       </c>
-      <c r="J38" s="18">
+      <c r="K38" s="18">
         <v>37</v>
       </c>
-      <c r="K38" s="17">
+      <c r="L38" s="17">
         <v>41771.46875</v>
       </c>
-      <c r="L38" s="17">
+      <c r="M38" s="17">
         <v>41771.502083333333</v>
       </c>
-      <c r="M38">
+      <c r="N38">
         <v>0.48099999999999998</v>
       </c>
-      <c r="N38">
+      <c r="O38">
         <v>0.8</v>
       </c>
-      <c r="O38">
+      <c r="P38">
         <v>0.60124999999999995</v>
       </c>
-      <c r="P38">
+      <c r="Q38">
         <v>2.2080000000000002</v>
       </c>
-      <c r="Q38">
+      <c r="R38">
         <v>1.806</v>
       </c>
-      <c r="R38">
+      <c r="S38">
         <v>1.3839999999999999</v>
       </c>
-      <c r="S38">
+      <c r="T38">
         <v>0.92600000000000005</v>
       </c>
-      <c r="T38">
+      <c r="U38">
         <v>0.48099999999999998</v>
       </c>
-      <c r="U38">
+      <c r="V38">
         <v>1.150732624</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22">
       <c r="A39" s="17">
         <v>41771.84652777778</v>
       </c>
@@ -7527,44 +7541,44 @@
       <c r="I39">
         <v>-9</v>
       </c>
-      <c r="J39" s="18">
+      <c r="K39" s="18">
         <v>38</v>
       </c>
-      <c r="K39" s="17">
+      <c r="L39" s="17">
         <v>41771.84375</v>
       </c>
-      <c r="L39" s="17">
+      <c r="M39" s="17">
         <v>41771.847222222219</v>
       </c>
-      <c r="M39">
+      <c r="N39">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="N39">
+      <c r="O39">
         <v>8.3333329999999997E-2</v>
-      </c>
-      <c r="O39">
-        <v>0.108</v>
       </c>
       <c r="P39">
         <v>0.108</v>
       </c>
       <c r="Q39">
+        <v>0.108</v>
+      </c>
+      <c r="R39">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="R39">
+      <c r="S39">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="S39">
+      <c r="T39">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="T39">
+      <c r="U39">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="U39">
+      <c r="V39">
         <v>2.0022180000000001E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22">
       <c r="A40" s="17">
         <v>41771.955555555556</v>
       </c>
@@ -7592,44 +7606,44 @@
       <c r="I40">
         <v>0.45</v>
       </c>
-      <c r="J40" s="18">
+      <c r="K40" s="18">
         <v>39</v>
       </c>
-      <c r="K40" s="17">
+      <c r="L40" s="17">
         <v>41771.947916666664</v>
       </c>
-      <c r="L40" s="17">
+      <c r="M40" s="17">
         <v>41772.052083333336</v>
       </c>
-      <c r="M40">
+      <c r="N40">
         <v>0.252</v>
       </c>
-      <c r="N40">
+      <c r="O40">
         <v>2.5</v>
       </c>
-      <c r="O40">
+      <c r="P40">
         <v>0.1008</v>
       </c>
-      <c r="P40">
+      <c r="Q40">
         <v>0.32400000000000001</v>
       </c>
-      <c r="Q40">
+      <c r="R40">
         <v>0.27</v>
       </c>
-      <c r="R40">
+      <c r="S40">
         <v>0.252</v>
       </c>
-      <c r="S40">
+      <c r="T40">
         <v>0.216</v>
       </c>
-      <c r="T40">
+      <c r="U40">
         <v>0.19800000000000001</v>
       </c>
-      <c r="U40">
+      <c r="V40">
         <v>0.40139797799999999</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22">
       <c r="A41" s="17">
         <v>41772.236111111109</v>
       </c>
@@ -7657,44 +7671,44 @@
       <c r="I41">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="J41" s="18">
+      <c r="K41" s="18">
         <v>40</v>
       </c>
-      <c r="K41" s="17">
+      <c r="L41" s="17">
         <v>41772.229166666664</v>
       </c>
-      <c r="L41" s="17">
+      <c r="M41" s="17">
         <v>41772.345138888886</v>
       </c>
-      <c r="M41">
+      <c r="N41">
         <v>8.1000000000000003E-2</v>
       </c>
-      <c r="N41">
+      <c r="O41">
         <v>2.78333333</v>
       </c>
-      <c r="O41">
+      <c r="P41">
         <v>2.9101795999999999E-2</v>
       </c>
-      <c r="P41">
+      <c r="Q41">
         <v>0.108</v>
       </c>
-      <c r="Q41">
+      <c r="R41">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="R41">
+      <c r="S41">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="S41">
+      <c r="T41">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="T41">
+      <c r="U41">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="U41">
+      <c r="V41">
         <v>4.2092702000000003E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22">
       <c r="A42" s="17">
         <v>41772.454861111109</v>
       </c>
@@ -7722,44 +7736,44 @@
       <c r="I42">
         <v>-9</v>
       </c>
-      <c r="J42" s="18">
+      <c r="K42" s="18">
         <v>41</v>
       </c>
-      <c r="K42" s="17">
+      <c r="L42" s="17">
         <v>41772.447916666664</v>
       </c>
-      <c r="L42" s="17">
+      <c r="M42" s="17">
         <v>41772.455555555556</v>
       </c>
-      <c r="M42">
+      <c r="N42">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="N42">
+      <c r="O42">
         <v>0.18333332999999999</v>
       </c>
-      <c r="O42">
+      <c r="P42">
         <v>4.9090909000000002E-2</v>
       </c>
-      <c r="P42">
+      <c r="Q42">
         <v>0.108</v>
       </c>
-      <c r="Q42">
+      <c r="R42">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="R42">
+      <c r="S42">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="S42">
+      <c r="T42">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="T42">
+      <c r="U42">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="U42">
+      <c r="V42">
         <v>2.1858310000000001E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22">
       <c r="A43" s="17">
         <v>41774.152083333334</v>
       </c>
@@ -7787,44 +7801,44 @@
       <c r="I43">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="J43" s="18">
+      <c r="K43" s="18">
         <v>42</v>
       </c>
-      <c r="K43" s="17">
+      <c r="L43" s="17">
         <v>41774.145833333336</v>
       </c>
-      <c r="L43" s="17">
+      <c r="M43" s="17">
         <v>41774.369444444441</v>
       </c>
-      <c r="M43">
+      <c r="N43">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="N43">
+      <c r="O43">
         <v>5.3666666699999999</v>
       </c>
-      <c r="O43">
+      <c r="P43">
         <v>1.8447205000000001E-2</v>
       </c>
-      <c r="P43">
+      <c r="Q43">
         <v>0.108</v>
       </c>
-      <c r="Q43">
+      <c r="R43">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="R43">
+      <c r="S43">
         <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="S43">
-        <v>3.5999999999999997E-2</v>
       </c>
       <c r="T43">
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="U43">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="V43">
         <v>4.6973998000000003E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22">
       <c r="A44" s="17">
         <v>41778.681944444441</v>
       </c>
@@ -7852,44 +7866,44 @@
       <c r="I44">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="J44" s="18">
+      <c r="K44" s="18">
         <v>43</v>
       </c>
-      <c r="K44" s="17">
+      <c r="L44" s="17">
         <v>41778.677083333336</v>
       </c>
-      <c r="L44" s="17">
+      <c r="M44" s="17">
         <v>41778.768055555556</v>
       </c>
-      <c r="M44">
+      <c r="N44">
         <v>6.3E-2</v>
       </c>
-      <c r="N44">
+      <c r="O44">
         <v>2.18333333</v>
       </c>
-      <c r="O44">
+      <c r="P44">
         <v>2.8854962000000001E-2</v>
-      </c>
-      <c r="P44">
-        <v>0.108</v>
       </c>
       <c r="Q44">
         <v>0.108</v>
       </c>
       <c r="R44">
+        <v>0.108</v>
+      </c>
+      <c r="S44">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="S44">
+      <c r="T44">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="T44">
+      <c r="U44">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="U44">
+      <c r="V44">
         <v>2.5377246999999999E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22">
       <c r="A45" s="17">
         <v>41779.032638888886</v>
       </c>
@@ -7917,44 +7931,44 @@
       <c r="I45">
         <v>-9</v>
       </c>
-      <c r="J45" s="18">
+      <c r="K45" s="18">
         <v>44</v>
       </c>
-      <c r="K45" s="17">
+      <c r="L45" s="17">
         <v>41779.03125</v>
       </c>
-      <c r="L45" s="17">
+      <c r="M45" s="17">
         <v>41779.033333333333</v>
       </c>
-      <c r="M45">
+      <c r="N45">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="N45">
+      <c r="O45">
         <v>0.05</v>
       </c>
-      <c r="O45">
+      <c r="P45">
         <v>0.18</v>
       </c>
-      <c r="P45">
+      <c r="Q45">
         <v>0.108</v>
       </c>
-      <c r="Q45">
+      <c r="R45">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="R45">
+      <c r="S45">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="S45">
+      <c r="T45">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="T45">
+      <c r="U45">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="U45">
+      <c r="V45">
         <v>1.8832580000000001E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22">
       <c r="A46" s="17">
         <v>41785.686805555553</v>
       </c>
@@ -7982,44 +7996,44 @@
       <c r="I46">
         <v>-9</v>
       </c>
-      <c r="J46" s="18">
+      <c r="K46" s="18">
         <v>45</v>
       </c>
-      <c r="K46" s="17">
+      <c r="L46" s="17">
         <v>41785.677083333336</v>
       </c>
-      <c r="L46" s="17">
+      <c r="M46" s="17">
         <v>41785.6875</v>
       </c>
-      <c r="M46">
+      <c r="N46">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="N46">
+      <c r="O46">
         <v>0.25</v>
       </c>
-      <c r="O46">
+      <c r="P46">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="P46">
+      <c r="Q46">
         <v>0.108</v>
       </c>
-      <c r="Q46">
+      <c r="R46">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="R46">
+      <c r="S46">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="S46">
+      <c r="T46">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="T46">
+      <c r="U46">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="U46">
+      <c r="V46">
         <v>2.2580590000000002E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22">
       <c r="A47" s="17">
         <v>41786.227777777778</v>
       </c>
@@ -8047,44 +8061,44 @@
       <c r="I47">
         <v>-9</v>
       </c>
-      <c r="J47" s="18">
+      <c r="K47" s="18">
         <v>46</v>
       </c>
-      <c r="K47" s="17">
+      <c r="L47" s="17">
         <v>41786.21875</v>
       </c>
-      <c r="L47" s="17">
+      <c r="M47" s="17">
         <v>41786.228472222225</v>
       </c>
-      <c r="M47">
+      <c r="N47">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="N47">
+      <c r="O47">
         <v>0.23333333000000001</v>
       </c>
-      <c r="O47">
+      <c r="P47">
         <v>3.8571428999999997E-2</v>
       </c>
-      <c r="P47">
+      <c r="Q47">
         <v>0.108</v>
       </c>
-      <c r="Q47">
+      <c r="R47">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="R47">
+      <c r="S47">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="S47">
+      <c r="T47">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="T47">
+      <c r="U47">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="U47">
+      <c r="V47">
         <v>2.2419929999999999E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22">
       <c r="A48" s="17">
         <v>41786.484027777777</v>
       </c>
@@ -8112,44 +8126,44 @@
       <c r="I48">
         <v>12.802</v>
       </c>
-      <c r="J48" s="18">
+      <c r="K48" s="18">
         <v>47</v>
       </c>
-      <c r="K48" s="17">
+      <c r="L48" s="17">
         <v>41786.479166666664</v>
       </c>
-      <c r="L48" s="17">
+      <c r="M48" s="17">
         <v>41786.584027777775</v>
       </c>
-      <c r="M48">
+      <c r="N48">
         <v>0.92100000000000004</v>
       </c>
-      <c r="N48">
+      <c r="O48">
         <v>2.5166666700000002</v>
       </c>
-      <c r="O48">
+      <c r="P48">
         <v>0.36596026500000001</v>
       </c>
-      <c r="P48">
+      <c r="Q48">
         <v>2.6280000000000001</v>
       </c>
-      <c r="Q48">
+      <c r="R48">
         <v>2.286</v>
       </c>
-      <c r="R48">
+      <c r="S48">
         <v>2.1720000000000002</v>
       </c>
-      <c r="S48">
+      <c r="T48">
         <v>1.446</v>
       </c>
-      <c r="T48">
+      <c r="U48">
         <v>0.77700000000000002</v>
       </c>
-      <c r="U48">
+      <c r="V48">
         <v>4.036486654</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22">
       <c r="A49" s="17">
         <v>41791.652083333334</v>
       </c>
@@ -8177,44 +8191,44 @@
       <c r="I49">
         <v>-9</v>
       </c>
-      <c r="J49" s="18">
+      <c r="K49" s="18">
         <v>48</v>
       </c>
-      <c r="K49" s="17">
+      <c r="L49" s="17">
         <v>41791.645833333336</v>
       </c>
-      <c r="L49" s="17">
+      <c r="M49" s="17">
         <v>41791.654861111114</v>
       </c>
-      <c r="M49">
+      <c r="N49">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="N49">
+      <c r="O49">
         <v>0.21666667000000001</v>
       </c>
-      <c r="O49">
+      <c r="P49">
         <v>0.24923076899999999</v>
       </c>
-      <c r="P49">
+      <c r="Q49">
         <v>0.64800000000000002</v>
       </c>
-      <c r="Q49">
+      <c r="R49">
         <v>0.32400000000000001</v>
       </c>
-      <c r="R49">
+      <c r="S49">
         <v>0.216</v>
       </c>
-      <c r="S49">
+      <c r="T49">
         <v>0.108</v>
       </c>
-      <c r="T49">
+      <c r="U49">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="U49">
+      <c r="V49">
         <v>3.3791105000000002E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22">
       <c r="A50" s="17">
         <v>41791.776388888888</v>
       </c>
@@ -8242,44 +8256,44 @@
       <c r="I50">
         <v>9.8580000000000005</v>
       </c>
-      <c r="J50" s="18">
+      <c r="K50" s="18">
         <v>49</v>
       </c>
-      <c r="K50" s="17">
+      <c r="L50" s="17">
         <v>41791.770833333336</v>
       </c>
-      <c r="L50" s="17">
+      <c r="M50" s="17">
         <v>41792.115277777775</v>
       </c>
-      <c r="M50">
+      <c r="N50">
         <v>1.2150000000000001</v>
       </c>
-      <c r="N50">
+      <c r="O50">
         <v>8.2666666699999993</v>
       </c>
-      <c r="O50">
+      <c r="P50">
         <v>0.14697580599999999</v>
       </c>
-      <c r="P50">
+      <c r="Q50">
         <v>1.8360000000000001</v>
       </c>
-      <c r="Q50">
+      <c r="R50">
         <v>1.296</v>
       </c>
-      <c r="R50">
+      <c r="S50">
         <v>0.9</v>
       </c>
-      <c r="S50">
+      <c r="T50">
         <v>0.88200000000000001</v>
       </c>
-      <c r="T50">
+      <c r="U50">
         <v>0.621</v>
       </c>
-      <c r="U50">
+      <c r="V50">
         <v>4.7132801000000004</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:22">
       <c r="A51" s="17">
         <v>41792.42083333333</v>
       </c>
@@ -8307,44 +8321,44 @@
       <c r="I51">
         <v>3.0310000000000001</v>
       </c>
-      <c r="J51" s="18">
+      <c r="K51" s="18">
         <v>50</v>
       </c>
-      <c r="K51" s="17">
+      <c r="L51" s="17">
         <v>41792.416666666664</v>
       </c>
-      <c r="L51" s="17">
+      <c r="M51" s="17">
         <v>41792.482638888891</v>
       </c>
-      <c r="M51">
+      <c r="N51">
         <v>0.495</v>
       </c>
-      <c r="N51">
+      <c r="O51">
         <v>1.5833333300000001</v>
       </c>
-      <c r="O51">
+      <c r="P51">
         <v>0.31263157899999999</v>
       </c>
-      <c r="P51">
+      <c r="Q51">
         <v>0.97199999999999998</v>
       </c>
-      <c r="Q51">
+      <c r="R51">
         <v>0.86399999999999999</v>
       </c>
-      <c r="R51">
+      <c r="S51">
         <v>0.79200000000000004</v>
       </c>
-      <c r="S51">
+      <c r="T51">
         <v>0.70199999999999996</v>
       </c>
-      <c r="T51">
+      <c r="U51">
         <v>0.46800000000000003</v>
       </c>
-      <c r="U51">
+      <c r="V51">
         <v>1.4104965460000001</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:22">
       <c r="A52" s="17">
         <v>41795.251388888886</v>
       </c>
@@ -8372,44 +8386,44 @@
       <c r="I52">
         <v>-9</v>
       </c>
-      <c r="J52" s="18">
+      <c r="K52" s="18">
         <v>51</v>
       </c>
-      <c r="K52" s="17">
+      <c r="L52" s="17">
         <v>41795.25</v>
       </c>
-      <c r="L52" s="17">
+      <c r="M52" s="17">
         <v>41795.252083333333</v>
       </c>
-      <c r="M52">
+      <c r="N52">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="N52">
+      <c r="O52">
         <v>0.05</v>
       </c>
-      <c r="O52">
+      <c r="P52">
         <v>0.18</v>
       </c>
-      <c r="P52">
+      <c r="Q52">
         <v>0.108</v>
       </c>
-      <c r="Q52">
+      <c r="R52">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="R52">
+      <c r="S52">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="S52">
+      <c r="T52">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="T52">
+      <c r="U52">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="U52">
+      <c r="V52">
         <v>1.8832580000000001E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:22">
       <c r="A53" s="17">
         <v>41797.883333333331</v>
       </c>
@@ -8437,44 +8451,44 @@
       <c r="I53">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="J53" s="18">
+      <c r="K53" s="18">
         <v>52</v>
       </c>
-      <c r="K53" s="17">
+      <c r="L53" s="17">
         <v>41797.875</v>
       </c>
-      <c r="L53" s="17">
+      <c r="M53" s="17">
         <v>41797.910416666666</v>
       </c>
-      <c r="M53">
+      <c r="N53">
         <v>2.7E-2</v>
       </c>
-      <c r="N53">
+      <c r="O53">
         <v>0.85</v>
       </c>
-      <c r="O53">
+      <c r="P53">
         <v>3.1764705999999997E-2</v>
       </c>
-      <c r="P53">
+      <c r="Q53">
         <v>0.108</v>
       </c>
-      <c r="Q53">
+      <c r="R53">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="R53">
+      <c r="S53">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="S53">
+      <c r="T53">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="T53">
+      <c r="U53">
         <v>2.7E-2</v>
       </c>
-      <c r="U53">
+      <c r="V53">
         <v>1.2762163E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:22">
       <c r="A54" s="17">
         <v>41801.275000000001</v>
       </c>
@@ -8502,44 +8516,44 @@
       <c r="I54">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="J54" s="18">
+      <c r="K54" s="18">
         <v>53</v>
       </c>
-      <c r="K54" s="17">
+      <c r="L54" s="17">
         <v>41801.270833333336</v>
       </c>
-      <c r="L54" s="17">
+      <c r="M54" s="17">
         <v>41801.463194444441</v>
       </c>
-      <c r="M54">
+      <c r="N54">
         <v>0.14399999999999999</v>
       </c>
-      <c r="N54">
+      <c r="O54">
         <v>4.6166666699999999</v>
       </c>
-      <c r="O54">
+      <c r="P54">
         <v>3.1191336E-2</v>
-      </c>
-      <c r="P54">
-        <v>0.108</v>
       </c>
       <c r="Q54">
         <v>0.108</v>
       </c>
       <c r="R54">
-        <v>7.1999999999999995E-2</v>
+        <v>0.108</v>
       </c>
       <c r="S54">
         <v>7.1999999999999995E-2</v>
       </c>
       <c r="T54">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="U54">
         <v>6.3E-2</v>
       </c>
-      <c r="U54">
+      <c r="V54">
         <v>0.116884101</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:22">
       <c r="A55" s="17">
         <v>41801.549305555556</v>
       </c>
@@ -8567,44 +8581,44 @@
       <c r="I55">
         <v>0.42899999999999999</v>
       </c>
-      <c r="J55" s="18">
+      <c r="K55" s="18">
         <v>54</v>
       </c>
-      <c r="K55" s="17">
+      <c r="L55" s="17">
         <v>41801.541666666664</v>
       </c>
-      <c r="L55" s="17">
+      <c r="M55" s="17">
         <v>41801.699999999997</v>
       </c>
-      <c r="M55">
+      <c r="N55">
         <v>0.36</v>
       </c>
-      <c r="N55">
+      <c r="O55">
         <v>3.8</v>
       </c>
-      <c r="O55">
+      <c r="P55">
         <v>9.4736842000000002E-2</v>
       </c>
-      <c r="P55">
+      <c r="Q55">
         <v>0.32400000000000001</v>
       </c>
-      <c r="Q55">
+      <c r="R55">
         <v>0.27</v>
       </c>
-      <c r="R55">
+      <c r="S55">
         <v>0.18</v>
-      </c>
-      <c r="S55">
-        <v>0.14399999999999999</v>
       </c>
       <c r="T55">
         <v>0.14399999999999999</v>
       </c>
       <c r="U55">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="V55">
         <v>0.18795858100000001</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:22">
       <c r="A56" s="17">
         <v>41805.599999999999</v>
       </c>
@@ -8632,44 +8646,44 @@
       <c r="I56">
         <v>-9</v>
       </c>
-      <c r="J56" s="18">
+      <c r="K56" s="18">
         <v>55</v>
       </c>
-      <c r="K56" s="17">
+      <c r="L56" s="17">
         <v>41805.59375</v>
       </c>
-      <c r="L56" s="17">
+      <c r="M56" s="17">
         <v>41805.600694444445</v>
       </c>
-      <c r="M56">
+      <c r="N56">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="N56">
+      <c r="O56">
         <v>0.16666666999999999</v>
       </c>
-      <c r="O56">
+      <c r="P56">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="P56">
+      <c r="Q56">
         <v>0.108</v>
       </c>
-      <c r="Q56">
+      <c r="R56">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="R56">
+      <c r="S56">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="S56">
+      <c r="T56">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="T56">
+      <c r="U56">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="U56">
+      <c r="V56">
         <v>2.163636E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:22">
       <c r="A57" s="17">
         <v>41806.961805555555</v>
       </c>
@@ -8697,44 +8711,44 @@
       <c r="I57">
         <v>13.073</v>
       </c>
-      <c r="J57" s="18">
+      <c r="K57" s="18">
         <v>56</v>
       </c>
-      <c r="K57" s="17">
+      <c r="L57" s="17">
         <v>41806.958333333336</v>
       </c>
-      <c r="L57" s="17">
+      <c r="M57" s="17">
         <v>41807.181944444441</v>
       </c>
-      <c r="M57">
+      <c r="N57">
         <v>1.417</v>
       </c>
-      <c r="N57">
+      <c r="O57">
         <v>5.3666666699999999</v>
       </c>
-      <c r="O57">
+      <c r="P57">
         <v>0.26403726700000002</v>
       </c>
-      <c r="P57">
+      <c r="Q57">
         <v>3.8159999999999998</v>
       </c>
-      <c r="Q57">
+      <c r="R57">
         <v>2.3940000000000001</v>
       </c>
-      <c r="R57">
+      <c r="S57">
         <v>1.6319999999999999</v>
       </c>
-      <c r="S57">
+      <c r="T57">
         <v>0.97</v>
       </c>
-      <c r="T57">
+      <c r="U57">
         <v>0.72099999999999997</v>
       </c>
-      <c r="U57">
+      <c r="V57">
         <v>5.6546881649999996</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:22">
       <c r="A58" s="17">
         <v>41808.09375</v>
       </c>
@@ -8762,44 +8776,44 @@
       <c r="I58">
         <v>-9</v>
       </c>
-      <c r="J58" s="18">
+      <c r="K58" s="18">
         <v>57</v>
       </c>
-      <c r="K58" s="17">
+      <c r="L58" s="17">
         <v>41808.09375</v>
       </c>
-      <c r="L58" s="17">
+      <c r="M58" s="17">
         <v>41808.109027777777</v>
       </c>
-      <c r="M58">
+      <c r="N58">
         <v>0.108</v>
       </c>
-      <c r="N58">
+      <c r="O58">
         <v>0.36666666999999997</v>
       </c>
-      <c r="O58">
+      <c r="P58">
         <v>0.29454545500000001</v>
       </c>
-      <c r="P58">
+      <c r="Q58">
         <v>0.64800000000000002</v>
       </c>
-      <c r="Q58">
+      <c r="R58">
         <v>0.32400000000000001</v>
-      </c>
-      <c r="R58">
-        <v>0.216</v>
       </c>
       <c r="S58">
         <v>0.216</v>
       </c>
       <c r="T58">
+        <v>0.216</v>
+      </c>
+      <c r="U58">
         <v>0.108</v>
       </c>
-      <c r="U58">
+      <c r="V58">
         <v>0.101518988</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:22">
       <c r="A59" s="17">
         <v>41808.241666666669</v>
       </c>
@@ -8827,44 +8841,44 @@
       <c r="I59">
         <v>11.292999999999999</v>
       </c>
-      <c r="J59" s="18">
+      <c r="K59" s="18">
         <v>58</v>
       </c>
-      <c r="K59" s="17">
+      <c r="L59" s="17">
         <v>41808.239583333336</v>
       </c>
-      <c r="L59" s="17">
+      <c r="M59" s="17">
         <v>41808.449999999997</v>
       </c>
-      <c r="M59">
+      <c r="N59">
         <v>1.4039999999999999</v>
       </c>
-      <c r="N59">
+      <c r="O59">
         <v>5.05</v>
       </c>
-      <c r="O59">
+      <c r="P59">
         <v>0.27801980199999998</v>
       </c>
-      <c r="P59">
+      <c r="Q59">
         <v>2.9159999999999999</v>
       </c>
-      <c r="Q59">
+      <c r="R59">
         <v>2.2679999999999998</v>
       </c>
-      <c r="R59">
+      <c r="S59">
         <v>1.62</v>
       </c>
-      <c r="S59">
+      <c r="T59">
         <v>0.88200000000000001</v>
       </c>
-      <c r="T59">
+      <c r="U59">
         <v>0.51300000000000001</v>
       </c>
-      <c r="U59">
+      <c r="V59">
         <v>4.3808351270000001</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:22">
       <c r="A60" s="17">
         <v>41809.853472222225</v>
       </c>
@@ -8892,44 +8906,44 @@
       <c r="I60">
         <v>1.1120000000000001</v>
       </c>
-      <c r="J60" s="18">
+      <c r="K60" s="18">
         <v>59</v>
       </c>
-      <c r="K60" s="17">
+      <c r="L60" s="17">
         <v>41809.84375</v>
       </c>
-      <c r="L60" s="17">
+      <c r="M60" s="17">
         <v>41809.995138888888</v>
       </c>
-      <c r="M60">
+      <c r="N60">
         <v>0.315</v>
       </c>
-      <c r="N60">
+      <c r="O60">
         <v>3.6333333300000001</v>
       </c>
-      <c r="O60">
+      <c r="P60">
         <v>8.6697248000000005E-2</v>
       </c>
-      <c r="P60">
+      <c r="Q60">
         <v>0.86399999999999999</v>
       </c>
-      <c r="Q60">
+      <c r="R60">
         <v>0.64800000000000002</v>
       </c>
-      <c r="R60">
+      <c r="S60">
         <v>0.504</v>
       </c>
-      <c r="S60">
+      <c r="T60">
         <v>0.41399999999999998</v>
       </c>
-      <c r="T60">
+      <c r="U60">
         <v>0.26100000000000001</v>
       </c>
-      <c r="U60">
+      <c r="V60">
         <v>0.68331685900000005</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:22">
       <c r="A61" s="17">
         <v>41810.104861111111</v>
       </c>
@@ -8957,44 +8971,44 @@
       <c r="I61">
         <v>-9</v>
       </c>
-      <c r="J61" s="18">
+      <c r="K61" s="18">
         <v>60</v>
       </c>
-      <c r="K61" s="17">
+      <c r="L61" s="17">
         <v>41810.104166666664</v>
       </c>
-      <c r="L61" s="17">
+      <c r="M61" s="17">
         <v>41810.105555555558</v>
       </c>
-      <c r="M61">
+      <c r="N61">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="N61">
+      <c r="O61">
         <v>3.3333330000000001E-2</v>
       </c>
-      <c r="O61">
+      <c r="P61">
         <v>0.27</v>
       </c>
-      <c r="P61">
+      <c r="Q61">
         <v>0.108</v>
       </c>
-      <c r="Q61">
+      <c r="R61">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="R61">
+      <c r="S61">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="S61">
+      <c r="T61">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="T61">
+      <c r="U61">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="U61">
+      <c r="V61">
         <v>1.788834E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:22">
       <c r="A62" s="17">
         <v>41810.190972222219</v>
       </c>
@@ -9022,44 +9036,44 @@
       <c r="I62">
         <v>1.665</v>
       </c>
-      <c r="J62" s="18">
+      <c r="K62" s="18">
         <v>61</v>
       </c>
-      <c r="K62" s="17">
+      <c r="L62" s="17">
         <v>41810.1875</v>
       </c>
-      <c r="L62" s="17">
+      <c r="M62" s="17">
         <v>41810.386111111111</v>
       </c>
-      <c r="M62">
+      <c r="N62">
         <v>0.621</v>
       </c>
-      <c r="N62">
+      <c r="O62">
         <v>4.7666666700000002</v>
       </c>
-      <c r="O62">
+      <c r="P62">
         <v>0.13027971999999999</v>
       </c>
-      <c r="P62">
+      <c r="Q62">
         <v>0.432</v>
       </c>
-      <c r="Q62">
+      <c r="R62">
         <v>0.378</v>
       </c>
-      <c r="R62">
+      <c r="S62">
         <v>0.36</v>
       </c>
-      <c r="S62">
+      <c r="T62">
         <v>0.32400000000000001</v>
       </c>
-      <c r="T62">
+      <c r="U62">
         <v>0.28799999999999998</v>
       </c>
-      <c r="U62">
+      <c r="V62">
         <v>1.5221927479999999</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:22">
       <c r="A63" s="17">
         <v>41811.450694444444</v>
       </c>
@@ -9087,44 +9101,44 @@
       <c r="I63">
         <v>-9</v>
       </c>
-      <c r="J63" s="18">
+      <c r="K63" s="18">
         <v>62</v>
       </c>
-      <c r="K63" s="17">
+      <c r="L63" s="17">
         <v>41811.447916666664</v>
       </c>
-      <c r="L63" s="17">
+      <c r="M63" s="17">
         <v>41811.455555555556</v>
       </c>
-      <c r="M63">
+      <c r="N63">
         <v>0.17100000000000001</v>
       </c>
-      <c r="N63">
+      <c r="O63">
         <v>0.18333332999999999</v>
       </c>
-      <c r="O63">
+      <c r="P63">
         <v>0.93272727300000002</v>
       </c>
-      <c r="P63">
+      <c r="Q63">
         <v>1.728</v>
       </c>
-      <c r="Q63">
+      <c r="R63">
         <v>1.026</v>
       </c>
-      <c r="R63">
+      <c r="S63">
         <v>0.68400000000000005</v>
       </c>
-      <c r="S63">
+      <c r="T63">
         <v>0.34200000000000003</v>
       </c>
-      <c r="T63">
+      <c r="U63">
         <v>0.17100000000000001</v>
       </c>
-      <c r="U63">
+      <c r="V63">
         <v>0.18552540300000001</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:22">
       <c r="A64" s="17">
         <v>41811.643055555556</v>
       </c>
@@ -9152,44 +9166,44 @@
       <c r="I64">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="J64" s="18">
+      <c r="K64" s="18">
         <v>63</v>
       </c>
-      <c r="K64" s="17">
+      <c r="L64" s="17">
         <v>41811.643055555556</v>
       </c>
-      <c r="L64" s="17">
+      <c r="M64" s="17">
         <v>41811.699305555558</v>
       </c>
-      <c r="M64">
+      <c r="N64">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="N64">
+      <c r="O64">
         <v>1.35</v>
       </c>
-      <c r="O64">
+      <c r="P64">
         <v>3.3333333E-2</v>
       </c>
-      <c r="P64">
+      <c r="Q64">
         <v>0.108</v>
       </c>
-      <c r="Q64">
+      <c r="R64">
         <v>5.3999999999999999E-2</v>
-      </c>
-      <c r="R64">
-        <v>3.5999999999999997E-2</v>
       </c>
       <c r="S64">
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="T64">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="U64">
         <v>2.7E-2</v>
       </c>
-      <c r="U64">
+      <c r="V64">
         <v>1.9594662999999998E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:22">
       <c r="A65" s="17">
         <v>41813.163888888892</v>
       </c>
@@ -9217,44 +9231,44 @@
       <c r="I65">
         <v>7.5250000000000004</v>
       </c>
-      <c r="J65" s="18">
+      <c r="K65" s="18">
         <v>64</v>
       </c>
-      <c r="K65" s="17">
+      <c r="L65" s="17">
         <v>41813.15625</v>
       </c>
-      <c r="L65" s="17">
+      <c r="M65" s="17">
         <v>41813.247916666667</v>
       </c>
-      <c r="M65">
+      <c r="N65">
         <v>0.84599999999999997</v>
       </c>
-      <c r="N65">
+      <c r="O65">
         <v>2.2000000000000002</v>
       </c>
-      <c r="O65">
+      <c r="P65">
         <v>0.38454545499999998</v>
       </c>
-      <c r="P65">
+      <c r="Q65">
         <v>1.62</v>
       </c>
-      <c r="Q65">
+      <c r="R65">
         <v>1.296</v>
       </c>
-      <c r="R65">
+      <c r="S65">
         <v>1.26</v>
       </c>
-      <c r="S65">
+      <c r="T65">
         <v>0.99</v>
       </c>
-      <c r="T65">
+      <c r="U65">
         <v>0.75600000000000001</v>
       </c>
-      <c r="U65">
+      <c r="V65">
         <v>2.2713900379999998</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:22">
       <c r="A66" s="17">
         <v>41813.941666666666</v>
       </c>
@@ -9282,44 +9296,44 @@
       <c r="I66">
         <v>0.46200000000000002</v>
       </c>
-      <c r="J66" s="18">
+      <c r="K66" s="18">
         <v>65</v>
       </c>
-      <c r="K66" s="17">
+      <c r="L66" s="17">
         <v>41813.9375</v>
       </c>
-      <c r="L66" s="17">
+      <c r="M66" s="17">
         <v>41813.998611111114</v>
       </c>
-      <c r="M66">
+      <c r="N66">
         <v>0.20699999999999999</v>
       </c>
-      <c r="N66">
+      <c r="O66">
         <v>1.46666667</v>
       </c>
-      <c r="O66">
+      <c r="P66">
         <v>0.14113636399999999</v>
       </c>
-      <c r="P66">
+      <c r="Q66">
         <v>0.432</v>
       </c>
-      <c r="Q66">
+      <c r="R66">
         <v>0.378</v>
       </c>
-      <c r="R66">
+      <c r="S66">
         <v>0.36</v>
       </c>
-      <c r="S66">
+      <c r="T66">
         <v>0.27</v>
       </c>
-      <c r="T66">
+      <c r="U66">
         <v>0.18</v>
       </c>
-      <c r="U66">
+      <c r="V66">
         <v>0.32414346199999999</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:22">
       <c r="A67" s="17">
         <v>41814.45208333333</v>
       </c>
@@ -9347,44 +9361,44 @@
       <c r="I67">
         <v>-9</v>
       </c>
-      <c r="J67" s="18">
+      <c r="K67" s="18">
         <v>66</v>
       </c>
-      <c r="K67" s="17">
+      <c r="L67" s="17">
         <v>41814.447916666664</v>
       </c>
-      <c r="L67" s="17">
+      <c r="M67" s="17">
         <v>41814.452777777777</v>
       </c>
-      <c r="M67">
+      <c r="N67">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="N67">
+      <c r="O67">
         <v>0.11666667</v>
       </c>
-      <c r="O67">
+      <c r="P67">
         <v>7.7142856999999995E-2</v>
       </c>
-      <c r="P67">
+      <c r="Q67">
         <v>0.108</v>
       </c>
-      <c r="Q67">
+      <c r="R67">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="R67">
+      <c r="S67">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="S67">
+      <c r="T67">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="T67">
+      <c r="U67">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="U67">
+      <c r="V67">
         <v>2.080574E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:22">
       <c r="A68" s="17">
         <v>41818.522222222222</v>
       </c>
@@ -9412,44 +9426,44 @@
       <c r="I68">
         <v>-9</v>
       </c>
-      <c r="J68" s="18">
+      <c r="K68" s="18">
         <v>67</v>
       </c>
-      <c r="K68" s="17">
+      <c r="L68" s="17">
         <v>41818.520833333336</v>
       </c>
-      <c r="L68" s="17">
+      <c r="M68" s="17">
         <v>41818.522916666669</v>
       </c>
-      <c r="M68">
+      <c r="N68">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="N68">
+      <c r="O68">
         <v>0.05</v>
       </c>
-      <c r="O68">
+      <c r="P68">
         <v>0.18</v>
       </c>
-      <c r="P68">
+      <c r="Q68">
         <v>0.108</v>
       </c>
-      <c r="Q68">
+      <c r="R68">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="R68">
+      <c r="S68">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="S68">
+      <c r="T68">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="T68">
+      <c r="U68">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="U68">
+      <c r="V68">
         <v>1.8832580000000001E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:22">
       <c r="A69" s="17">
         <v>41819.159722222219</v>
       </c>
@@ -9477,44 +9491,44 @@
       <c r="I69">
         <v>0.02</v>
       </c>
-      <c r="J69" s="18">
+      <c r="K69" s="18">
         <v>68</v>
       </c>
-      <c r="K69" s="17">
+      <c r="L69" s="17">
         <v>41819.15625</v>
       </c>
-      <c r="L69" s="17">
+      <c r="M69" s="17">
         <v>41819.22152777778</v>
       </c>
-      <c r="M69">
+      <c r="N69">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="N69">
+      <c r="O69">
         <v>1.56666667</v>
       </c>
-      <c r="O69">
+      <c r="P69">
         <v>2.8723404000000001E-2</v>
       </c>
-      <c r="P69">
+      <c r="Q69">
         <v>0.216</v>
       </c>
-      <c r="Q69">
+      <c r="R69">
         <v>0.108</v>
       </c>
-      <c r="R69">
+      <c r="S69">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="S69">
+      <c r="T69">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="T69">
+      <c r="U69">
         <v>2.7E-2</v>
       </c>
-      <c r="U69">
+      <c r="V69">
         <v>2.4609721000000001E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:22">
       <c r="A70" s="17">
         <v>41819.970833333333</v>
       </c>
@@ -9542,44 +9556,44 @@
       <c r="I70">
         <v>1.026</v>
       </c>
-      <c r="J70" s="18">
+      <c r="K70" s="18">
         <v>69</v>
       </c>
-      <c r="K70" s="17">
+      <c r="L70" s="17">
         <v>41819.96875</v>
       </c>
-      <c r="L70" s="17">
+      <c r="M70" s="17">
         <v>41820.041666666664</v>
       </c>
-      <c r="M70">
+      <c r="N70">
         <v>0.315</v>
       </c>
-      <c r="N70">
+      <c r="O70">
         <v>1.75</v>
       </c>
-      <c r="O70">
+      <c r="P70">
         <v>0.18</v>
       </c>
-      <c r="P70">
+      <c r="Q70">
         <v>0.75600000000000001</v>
       </c>
-      <c r="Q70">
+      <c r="R70">
         <v>0.48599999999999999</v>
       </c>
-      <c r="R70">
+      <c r="S70">
         <v>0.432</v>
       </c>
-      <c r="S70">
+      <c r="T70">
         <v>0.378</v>
       </c>
-      <c r="T70">
+      <c r="U70">
         <v>0.252</v>
       </c>
-      <c r="U70">
+      <c r="V70">
         <v>0.54433390999999998</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:22">
       <c r="A71" s="17">
         <v>41820.745833333334</v>
       </c>
@@ -9607,44 +9621,44 @@
       <c r="I71">
         <v>3.0579999999999998</v>
       </c>
-      <c r="J71" s="18">
+      <c r="K71" s="18">
         <v>70</v>
       </c>
-      <c r="K71" s="17">
+      <c r="L71" s="17">
         <v>41820.739583333336</v>
       </c>
-      <c r="L71" s="17">
+      <c r="M71" s="17">
         <v>41820.9375</v>
       </c>
-      <c r="M71">
+      <c r="N71">
         <v>0.63900000000000001</v>
       </c>
-      <c r="N71">
+      <c r="O71">
         <v>4.75</v>
       </c>
-      <c r="O71">
+      <c r="P71">
         <v>0.13452631600000001</v>
       </c>
-      <c r="P71">
+      <c r="Q71">
         <v>0.97199999999999998</v>
       </c>
-      <c r="Q71">
+      <c r="R71">
         <v>0.91800000000000004</v>
       </c>
-      <c r="R71">
+      <c r="S71">
         <v>0.79200000000000004</v>
       </c>
-      <c r="S71">
+      <c r="T71">
         <v>0.55800000000000005</v>
       </c>
-      <c r="T71">
+      <c r="U71">
         <v>0.45</v>
       </c>
-      <c r="U71">
+      <c r="V71">
         <v>2.0774283320000002</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:22">
       <c r="A72" s="17">
         <v>41822.306944444441</v>
       </c>
@@ -9672,44 +9686,44 @@
       <c r="I72">
         <v>1.6E-2</v>
       </c>
-      <c r="J72" s="18">
+      <c r="K72" s="18">
         <v>71</v>
       </c>
-      <c r="K72" s="17">
+      <c r="L72" s="17">
         <v>41822.302083333336</v>
       </c>
-      <c r="L72" s="17">
+      <c r="M72" s="17">
         <v>41822.430555555555</v>
       </c>
-      <c r="M72">
+      <c r="N72">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="N72">
+      <c r="O72">
         <v>3.0833333299999999</v>
       </c>
-      <c r="O72">
+      <c r="P72">
         <v>1.7513514000000001E-2</v>
       </c>
-      <c r="P72">
+      <c r="Q72">
         <v>0.108</v>
       </c>
-      <c r="Q72">
+      <c r="R72">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="R72">
+      <c r="S72">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="S72">
+      <c r="T72">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="T72">
+      <c r="U72">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="U72">
+      <c r="V72">
         <v>2.0033221E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:22">
       <c r="A73" s="17">
         <v>41822.652083333334</v>
       </c>
@@ -9737,44 +9751,44 @@
       <c r="I73">
         <v>-9</v>
       </c>
-      <c r="J73" s="18">
+      <c r="K73" s="18">
         <v>72</v>
       </c>
-      <c r="K73" s="17">
+      <c r="L73" s="17">
         <v>41822.645833333336</v>
       </c>
-      <c r="L73" s="17">
+      <c r="M73" s="17">
         <v>41822.652777777781</v>
       </c>
-      <c r="M73">
+      <c r="N73">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="N73">
+      <c r="O73">
         <v>0.16666666999999999</v>
       </c>
-      <c r="O73">
+      <c r="P73">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="P73">
+      <c r="Q73">
         <v>0.108</v>
       </c>
-      <c r="Q73">
+      <c r="R73">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="R73">
+      <c r="S73">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="S73">
+      <c r="T73">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="T73">
+      <c r="U73">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="U73">
+      <c r="V73">
         <v>2.163636E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:22">
       <c r="A74" s="17">
         <v>41827.913194444445</v>
       </c>
@@ -9802,44 +9816,44 @@
       <c r="I74">
         <v>1.8</v>
       </c>
-      <c r="J74" s="18">
+      <c r="K74" s="18">
         <v>73</v>
       </c>
-      <c r="K74" s="17">
+      <c r="L74" s="17">
         <v>41827.90625</v>
       </c>
-      <c r="L74" s="17">
+      <c r="M74" s="17">
         <v>41828.053472222222</v>
       </c>
-      <c r="M74">
+      <c r="N74">
         <v>0.495</v>
       </c>
-      <c r="N74">
+      <c r="O74">
         <v>3.53333333</v>
       </c>
-      <c r="O74">
+      <c r="P74">
         <v>0.14009434000000001</v>
       </c>
-      <c r="P74">
+      <c r="Q74">
         <v>0.86399999999999999</v>
       </c>
-      <c r="Q74">
+      <c r="R74">
         <v>0.59399999999999997</v>
       </c>
-      <c r="R74">
+      <c r="S74">
         <v>0.504</v>
       </c>
-      <c r="S74">
+      <c r="T74">
         <v>0.432</v>
       </c>
-      <c r="T74">
+      <c r="U74">
         <v>0.34200000000000003</v>
       </c>
-      <c r="U74">
+      <c r="V74">
         <v>0.92949783100000005</v>
       </c>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:22">
       <c r="A75" s="17">
         <v>41828.523611111108</v>
       </c>
@@ -9867,44 +9881,44 @@
       <c r="I75">
         <v>-9</v>
       </c>
-      <c r="J75" s="18">
+      <c r="K75" s="18">
         <v>74</v>
       </c>
-      <c r="K75" s="17">
+      <c r="L75" s="17">
         <v>41828.520833333336</v>
       </c>
-      <c r="L75" s="17">
+      <c r="M75" s="17">
         <v>41828.524305555555</v>
       </c>
-      <c r="M75">
+      <c r="N75">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="N75">
+      <c r="O75">
         <v>8.3333329999999997E-2</v>
-      </c>
-      <c r="O75">
-        <v>0.108</v>
       </c>
       <c r="P75">
         <v>0.108</v>
       </c>
       <c r="Q75">
+        <v>0.108</v>
+      </c>
+      <c r="R75">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="R75">
+      <c r="S75">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="S75">
+      <c r="T75">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="T75">
+      <c r="U75">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="U75">
+      <c r="V75">
         <v>2.0022180000000001E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:22">
       <c r="A76" s="17">
         <v>41832.758333333331</v>
       </c>
@@ -9932,44 +9946,44 @@
       <c r="I76">
         <v>-9</v>
       </c>
-      <c r="J76" s="18">
+      <c r="K76" s="18">
         <v>75</v>
       </c>
-      <c r="K76" s="17">
+      <c r="L76" s="17">
         <v>41832.75</v>
       </c>
-      <c r="L76" s="17">
+      <c r="M76" s="17">
         <v>41832.759027777778</v>
       </c>
-      <c r="M76">
+      <c r="N76">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="N76">
+      <c r="O76">
         <v>0.21666667000000001</v>
       </c>
-      <c r="O76">
+      <c r="P76">
         <v>4.1538461999999998E-2</v>
       </c>
-      <c r="P76">
+      <c r="Q76">
         <v>0.108</v>
       </c>
-      <c r="Q76">
+      <c r="R76">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="R76">
+      <c r="S76">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="S76">
+      <c r="T76">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="T76">
+      <c r="U76">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="U76">
+      <c r="V76">
         <v>2.2247349999999998E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:22">
       <c r="A77" s="17">
         <v>41832.851388888892</v>
       </c>
@@ -9997,44 +10011,44 @@
       <c r="I77">
         <v>8.2289999999999992</v>
       </c>
-      <c r="J77" s="18">
+      <c r="K77" s="18">
         <v>76</v>
       </c>
-      <c r="K77" s="17">
+      <c r="L77" s="17">
         <v>41832.84375</v>
       </c>
-      <c r="L77" s="17">
+      <c r="M77" s="17">
         <v>41832.96875</v>
       </c>
-      <c r="M77">
+      <c r="N77">
         <v>0.89100000000000001</v>
       </c>
-      <c r="N77">
+      <c r="O77">
         <v>3</v>
       </c>
-      <c r="O77">
+      <c r="P77">
         <v>0.29699999999999999</v>
       </c>
-      <c r="P77">
+      <c r="Q77">
         <v>1.4039999999999999</v>
       </c>
-      <c r="Q77">
+      <c r="R77">
         <v>1.1879999999999999</v>
       </c>
-      <c r="R77">
+      <c r="S77">
         <v>1.1519999999999999</v>
       </c>
-      <c r="S77">
+      <c r="T77">
         <v>1.026</v>
       </c>
-      <c r="T77">
+      <c r="U77">
         <v>0.79200000000000004</v>
       </c>
-      <c r="U77">
+      <c r="V77">
         <v>2.5271365110000001</v>
       </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:22">
       <c r="A78" s="17">
         <v>41835.145833333336</v>
       </c>
@@ -10062,44 +10076,44 @@
       <c r="I78">
         <v>2.4550000000000001</v>
       </c>
-      <c r="J78" s="18">
+      <c r="K78" s="18">
         <v>77</v>
       </c>
-      <c r="K78" s="17">
+      <c r="L78" s="17">
         <v>41835.145833333336</v>
       </c>
-      <c r="L78" s="17">
+      <c r="M78" s="17">
         <v>41835.228472222225</v>
       </c>
-      <c r="M78">
+      <c r="N78">
         <v>0.54900000000000004</v>
       </c>
-      <c r="N78">
+      <c r="O78">
         <v>1.98333333</v>
       </c>
-      <c r="O78">
+      <c r="P78">
         <v>0.27680672299999998</v>
       </c>
-      <c r="P78">
+      <c r="Q78">
         <v>0.97199999999999998</v>
       </c>
-      <c r="Q78">
+      <c r="R78">
         <v>0.91800000000000004</v>
       </c>
-      <c r="R78">
+      <c r="S78">
         <v>0.64800000000000002</v>
       </c>
-      <c r="S78">
+      <c r="T78">
         <v>0.52200000000000002</v>
       </c>
-      <c r="T78">
+      <c r="U78">
         <v>0.378</v>
       </c>
-      <c r="U78">
+      <c r="V78">
         <v>0.57376012200000004</v>
       </c>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:22">
       <c r="A79" s="17">
         <v>41835.49722222222</v>
       </c>
@@ -10127,45 +10141,50 @@
       <c r="I79">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="J79" s="18">
+      <c r="K79" s="18">
         <v>78</v>
       </c>
-      <c r="K79" s="17">
+      <c r="L79" s="17">
         <v>41835.489583333336</v>
       </c>
-      <c r="L79" s="17">
+      <c r="M79" s="17">
         <v>41835.563888888886</v>
       </c>
-      <c r="M79">
+      <c r="N79">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="N79">
+      <c r="O79">
         <v>1.78333333</v>
       </c>
-      <c r="O79">
+      <c r="P79">
         <v>2.0186915999999999E-2</v>
       </c>
-      <c r="P79">
+      <c r="Q79">
         <v>0.216</v>
       </c>
-      <c r="Q79">
+      <c r="R79">
         <v>0.108</v>
       </c>
-      <c r="R79">
+      <c r="S79">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="S79">
+      <c r="T79">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="T79">
+      <c r="U79">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="U79">
+      <c r="V79">
         <v>1.5694158E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>